--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.725066915151018</v>
+        <v>1.882476512229857</v>
       </c>
       <c r="C2">
-        <v>0.7289380475878033</v>
+        <v>0.2235179765448549</v>
       </c>
       <c r="D2">
-        <v>0.01830876473600185</v>
+        <v>0.002322088078965834</v>
       </c>
       <c r="E2">
-        <v>0.09450964127525907</v>
+        <v>0.02926608295464739</v>
       </c>
       <c r="F2">
-        <v>2.602319959884454</v>
+        <v>2.895596880381277</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.431224020669731</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08650022206875008</v>
+        <v>0.08901912769067089</v>
       </c>
       <c r="K2">
-        <v>0.5668733969419932</v>
+        <v>0.4208937436745899</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1230225346798051</v>
       </c>
       <c r="M2">
-        <v>0.6780220625364848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.32254386618051</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.177270090739157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.486277705924238</v>
+        <v>1.655651800637116</v>
       </c>
       <c r="C3">
-        <v>0.6268501085940841</v>
+        <v>0.1952741165333407</v>
       </c>
       <c r="D3">
-        <v>0.01851828778611342</v>
+        <v>0.001960537410033325</v>
       </c>
       <c r="E3">
-        <v>0.08309139849235336</v>
+        <v>0.02938346323783891</v>
       </c>
       <c r="F3">
-        <v>2.336314969330274</v>
+        <v>2.739919878832453</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.308131520009525</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07727173607313276</v>
+        <v>0.08977128461643957</v>
       </c>
       <c r="K3">
-        <v>0.4881056354711575</v>
+        <v>0.3662204719557494</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1140888993562115</v>
       </c>
       <c r="M3">
-        <v>0.5846667015389215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2866029544183277</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.057678503986651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.341783858527634</v>
+        <v>1.518866574117936</v>
       </c>
       <c r="C4">
-        <v>0.5652899179929136</v>
+        <v>0.1780717649764796</v>
       </c>
       <c r="D4">
-        <v>0.01865730261581966</v>
+        <v>0.001748872549624636</v>
       </c>
       <c r="E4">
-        <v>0.07625955128886019</v>
+        <v>0.02946636097448874</v>
       </c>
       <c r="F4">
-        <v>2.177875839875682</v>
+        <v>2.648338888037344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.235152444424287</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07177986337853426</v>
+        <v>0.09026863273204633</v>
       </c>
       <c r="K4">
-        <v>0.4404943918620461</v>
+        <v>0.3331729909404118</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1087692649067122</v>
       </c>
       <c r="M4">
-        <v>0.5283760441639842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2649739773327759</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.987312014943129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.283353910404287</v>
+        <v>1.463686870157773</v>
       </c>
       <c r="C5">
-        <v>0.5404437233704016</v>
+        <v>0.1710889480615378</v>
       </c>
       <c r="D5">
-        <v>0.01871619312188955</v>
+        <v>0.001664802645288788</v>
       </c>
       <c r="E5">
-        <v>0.07351524449569169</v>
+        <v>0.02950280052249354</v>
       </c>
       <c r="F5">
-        <v>2.114405125491217</v>
+        <v>2.611952031443451</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.205998396700764</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06958078776587229</v>
+        <v>0.09048003922784353</v>
       </c>
       <c r="K5">
-        <v>0.4212530048101968</v>
+        <v>0.319821961786424</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1066404503751315</v>
       </c>
       <c r="M5">
-        <v>0.5056600301905405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2562601643131437</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.959349277202222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.273676742182516</v>
+        <v>1.454556455117626</v>
       </c>
       <c r="C6">
-        <v>0.5363313724534748</v>
+        <v>0.1699308880402839</v>
       </c>
       <c r="D6">
-        <v>0.01872609722114404</v>
+        <v>0.001650963581102616</v>
       </c>
       <c r="E6">
-        <v>0.07306180793592532</v>
+        <v>0.02950901006228479</v>
       </c>
       <c r="F6">
-        <v>2.1039282410471</v>
+        <v>2.605964315744714</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.201190863962125</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.069217845919475</v>
+        <v>0.09051566499843133</v>
       </c>
       <c r="K6">
-        <v>0.4180668967543681</v>
+        <v>0.3176116221621967</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.106289242193526</v>
       </c>
       <c r="M6">
-        <v>0.501900519959726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2548190088400375</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.954747479159721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.340994122338145</v>
+        <v>1.518120209100488</v>
       </c>
       <c r="C7">
-        <v>0.5649539143470008</v>
+        <v>0.1779774916650183</v>
       </c>
       <c r="D7">
-        <v>0.01865808821613513</v>
+        <v>0.001747730421564953</v>
       </c>
       <c r="E7">
-        <v>0.07622238641026513</v>
+        <v>0.02946684172890102</v>
       </c>
       <c r="F7">
-        <v>2.177015589901046</v>
+        <v>2.647844477941007</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.234756978133646</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07175005458645245</v>
+        <v>0.09027144872734105</v>
       </c>
       <c r="K7">
-        <v>0.440234281601434</v>
+        <v>0.3329924835217142</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1087404005323833</v>
       </c>
       <c r="M7">
-        <v>0.5280688309968156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2648560671316638</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.986932089883396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.642240140086585</v>
+        <v>1.803711407333395</v>
       </c>
       <c r="C8">
-        <v>0.6934786142111875</v>
+        <v>0.2137456459079203</v>
       </c>
       <c r="D8">
-        <v>0.01837862368321552</v>
+        <v>0.002195020944977699</v>
       </c>
       <c r="E8">
-        <v>0.09053214824323064</v>
+        <v>0.02930426813898412</v>
       </c>
       <c r="F8">
-        <v>2.509501775891977</v>
+        <v>2.841041866305829</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.388199032405126</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08327890393956139</v>
+        <v>0.08927097539189965</v>
       </c>
       <c r="K8">
-        <v>0.539540015326601</v>
+        <v>0.4019244971105635</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1199061589389814</v>
       </c>
       <c r="M8">
-        <v>0.6455965980187059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3100539608897392</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.135362815449184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.253955882044465</v>
+        <v>2.386647745865389</v>
       </c>
       <c r="C9">
-        <v>0.9565500427699192</v>
+        <v>0.2853827079247253</v>
       </c>
       <c r="D9">
-        <v>0.01793167566491327</v>
+        <v>0.003174997986093331</v>
       </c>
       <c r="E9">
-        <v>0.1202799214927026</v>
+        <v>0.02907462182752329</v>
       </c>
       <c r="F9">
-        <v>3.207074558157331</v>
+        <v>3.255331525655464</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.713158834860636</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1075210200281838</v>
+        <v>0.08760053603463547</v>
       </c>
       <c r="K9">
-        <v>0.7416967705975992</v>
+        <v>0.5419988242989291</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1432494790927734</v>
       </c>
       <c r="M9">
-        <v>0.8860627285960945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4026755050586814</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.453605082867696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.722692239839091</v>
+        <v>2.833783757609694</v>
       </c>
       <c r="C10">
-        <v>1.159933933337641</v>
+        <v>0.3395312567855626</v>
       </c>
       <c r="D10">
-        <v>0.01769546350445417</v>
+        <v>0.00399083253419974</v>
       </c>
       <c r="E10">
-        <v>0.1435832848747083</v>
+        <v>0.02896544799317313</v>
       </c>
       <c r="F10">
-        <v>3.758026180670299</v>
+        <v>3.58691512868316</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.971965167552327</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1267222477552039</v>
+        <v>0.0865655651217061</v>
       </c>
       <c r="K10">
-        <v>0.8970361802193594</v>
+        <v>0.6490679808415933</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1614875228596944</v>
       </c>
       <c r="M10">
-        <v>1.071708147253823</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.4739386527208467</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.708382650599674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.941831535503809</v>
+        <v>3.042526325292044</v>
       </c>
       <c r="C11">
-        <v>1.255540704541147</v>
+        <v>0.3646481575526934</v>
       </c>
       <c r="D11">
-        <v>0.01761636342505923</v>
+        <v>0.004391520253234305</v>
       </c>
       <c r="E11">
-        <v>0.1546084879106928</v>
+        <v>0.0289300850095664</v>
       </c>
       <c r="F11">
-        <v>4.019795803446527</v>
+        <v>3.74507652932013</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.095461909508231</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1358625312068007</v>
+        <v>0.08614013103257534</v>
       </c>
       <c r="K11">
-        <v>0.9697844140311815</v>
+        <v>0.6989746910086154</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1700723798474257</v>
       </c>
       <c r="M11">
-        <v>1.158866028635536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5072533088710074</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.82994625197756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.025829701612167</v>
+        <v>3.122455272838408</v>
       </c>
       <c r="C12">
-        <v>1.292275283720244</v>
+        <v>0.3742435207521453</v>
       </c>
       <c r="D12">
-        <v>0.01759133849892436</v>
+        <v>0.004548357859450292</v>
       </c>
       <c r="E12">
-        <v>0.1588551439179398</v>
+        <v>0.02891888561395861</v>
       </c>
       <c r="F12">
-        <v>4.120793494988391</v>
+        <v>3.806153372299036</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.143192428280074</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1393921208272566</v>
+        <v>0.08598590064596934</v>
       </c>
       <c r="K12">
-        <v>0.9976904776975744</v>
+        <v>0.7180734770808002</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1733695383188731</v>
       </c>
       <c r="M12">
-        <v>1.19233322304455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5200161552166875</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.876897727289702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.007691167691576</v>
+        <v>3.105199912589569</v>
       </c>
       <c r="C13">
-        <v>1.284338729071067</v>
+        <v>0.3721729960801952</v>
       </c>
       <c r="D13">
-        <v>0.01759649368704785</v>
+        <v>0.004514338041555988</v>
       </c>
       <c r="E13">
-        <v>0.1579371781432428</v>
+        <v>0.02892119775441504</v>
       </c>
       <c r="F13">
-        <v>4.098953904177677</v>
+        <v>3.792944441959378</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.13286751246352</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1386287442771774</v>
+        <v>0.08601880534109618</v>
       </c>
       <c r="K13">
-        <v>0.9916634704717353</v>
+        <v>0.7139508342284628</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1726572964892199</v>
       </c>
       <c r="M13">
-        <v>1.185103618808235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5172605811983431</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.86674328482394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.948720743755587</v>
+        <v>3.04908373171088</v>
       </c>
       <c r="C14">
-        <v>1.258551709238191</v>
+        <v>0.365435798405656</v>
       </c>
       <c r="D14">
-        <v>0.01761420042093675</v>
+        <v>0.004404315709027884</v>
       </c>
       <c r="E14">
-        <v>0.1549563605302922</v>
+        <v>0.0289291188555878</v>
       </c>
       <c r="F14">
-        <v>4.028065760768044</v>
+        <v>3.750076810695703</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.099368539397091</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1361514797879266</v>
+        <v>0.08612730255304335</v>
       </c>
       <c r="K14">
-        <v>0.9720727258318362</v>
+        <v>0.700541777942135</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1703426824891707</v>
       </c>
       <c r="M14">
-        <v>1.161609670642719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5083002509197243</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.833789945574125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.912737132804523</v>
+        <v>3.014829539548543</v>
       </c>
       <c r="C15">
-        <v>1.242828272663019</v>
+        <v>0.3613204871050471</v>
       </c>
       <c r="D15">
-        <v>0.01762571596548845</v>
+        <v>0.004337616267823918</v>
       </c>
       <c r="E15">
-        <v>0.1531401961151673</v>
+        <v>0.02893426054962456</v>
       </c>
       <c r="F15">
-        <v>3.984897067875892</v>
+        <v>3.723977572000024</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.078979489411367</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1346433097072222</v>
+        <v>0.08619466614084814</v>
       </c>
       <c r="K15">
-        <v>0.9601213109336442</v>
+        <v>0.6923552885679953</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1689310907746062</v>
       </c>
       <c r="M15">
-        <v>1.147281518933674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5028315547500384</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.81372789367768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.708503462697138</v>
+        <v>2.820258897488827</v>
       </c>
       <c r="C16">
-        <v>1.153755025943042</v>
+        <v>0.337900754827416</v>
       </c>
       <c r="D16">
-        <v>0.01770127290159884</v>
+        <v>0.003965311840202546</v>
       </c>
       <c r="E16">
-        <v>0.1428721760147269</v>
+        <v>0.02896805794827451</v>
       </c>
       <c r="F16">
-        <v>3.741165243175658</v>
+        <v>3.576737172598001</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.964021561282635</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1261338956345739</v>
+        <v>0.08659431018515562</v>
       </c>
       <c r="K16">
-        <v>0.8923286313889918</v>
+        <v>0.6458329016838178</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1609326818694825</v>
       </c>
       <c r="M16">
-        <v>1.066072661429331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.4717810285146413</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.700560743403045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.584836447035116</v>
+        <v>2.702341185746491</v>
       </c>
       <c r="C17">
-        <v>1.099959693512005</v>
+        <v>0.3236673529524978</v>
       </c>
       <c r="D17">
-        <v>0.01775544775524729</v>
+        <v>0.003745057463449442</v>
       </c>
       <c r="E17">
-        <v>0.1366888735777145</v>
+        <v>0.02899254467861745</v>
       </c>
       <c r="F17">
-        <v>3.594676737449447</v>
+        <v>3.488374513188518</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.895065981678457</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1210242231859979</v>
+        <v>0.08685133680323709</v>
       </c>
       <c r="K17">
-        <v>0.8513125709563667</v>
+        <v>0.6176190307521026</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1561030065850844</v>
       </c>
       <c r="M17">
-        <v>1.01699580120583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4529746305299085</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.632657124957674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.514251444654292</v>
+        <v>2.63501287559194</v>
       </c>
       <c r="C18">
-        <v>1.069302682871239</v>
+        <v>0.3155253130057929</v>
       </c>
       <c r="D18">
-        <v>0.0177892177010488</v>
+        <v>0.003621097483023306</v>
       </c>
       <c r="E18">
-        <v>0.1331716290768732</v>
+        <v>0.029007965681215</v>
       </c>
       <c r="F18">
-        <v>3.511450686360803</v>
+        <v>3.438231169077369</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.855937951276715</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1181227673782317</v>
+        <v>0.08700342020032537</v>
       </c>
       <c r="K18">
-        <v>0.8279133891765724</v>
+        <v>0.6015023201948111</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1533519217932238</v>
       </c>
       <c r="M18">
-        <v>0.9890179236453989</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.4422408738410297</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.594127042464024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.490441519428657</v>
+        <v>2.612298358577107</v>
       </c>
       <c r="C19">
-        <v>1.058969197287496</v>
+        <v>0.3127758112101162</v>
       </c>
       <c r="D19">
-        <v>0.01780107628459504</v>
+        <v>0.003579570581786484</v>
       </c>
       <c r="E19">
-        <v>0.1319871880606414</v>
+        <v>0.02901341276353664</v>
       </c>
       <c r="F19">
-        <v>3.483441117220622</v>
+        <v>3.421366598882599</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.842777641362062</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1171465405267327</v>
+        <v>0.08705563273992034</v>
       </c>
       <c r="K19">
-        <v>0.8200221913573529</v>
+        <v>0.5960637811808169</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1524249196858491</v>
       </c>
       <c r="M19">
-        <v>0.9795859415059809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4386203690656743</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.581168839843073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.597943484680741</v>
+        <v>2.714841721326366</v>
       </c>
       <c r="C20">
-        <v>1.105656252114215</v>
+        <v>0.3251778038214468</v>
       </c>
       <c r="D20">
-        <v>0.01774940492022026</v>
+        <v>0.003768216130564994</v>
       </c>
       <c r="E20">
-        <v>0.1373429645583997</v>
+        <v>0.02898979874289864</v>
       </c>
       <c r="F20">
-        <v>3.61016222849014</v>
+        <v>3.497709530878609</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.902350291078321</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1215642079762596</v>
+        <v>0.08682353378570795</v>
       </c>
       <c r="K20">
-        <v>0.8556585158793268</v>
+        <v>0.6206107508491954</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1566143252206942</v>
       </c>
       <c r="M20">
-        <v>1.022193762897906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4549678677730711</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.639830399691121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.966012807413051</v>
+        <v>3.065541476205738</v>
       </c>
       <c r="C21">
-        <v>1.266110833930952</v>
+        <v>0.3674122690631521</v>
       </c>
       <c r="D21">
-        <v>0.0176088582311742</v>
+        <v>0.00443648593293311</v>
       </c>
       <c r="E21">
-        <v>0.1558298620218963</v>
+        <v>0.02892673157393322</v>
       </c>
       <c r="F21">
-        <v>4.048834202455026</v>
+        <v>3.762634801639194</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.109180629084904</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1368771696934843</v>
+        <v>0.08609524482704067</v>
       </c>
       <c r="K21">
-        <v>0.9778167825530204</v>
+        <v>0.7044746737313901</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1710212442621284</v>
       </c>
       <c r="M21">
-        <v>1.168497227299305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5109279623577834</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.843443342966538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.212577670988367</v>
+        <v>3.299952188870577</v>
       </c>
       <c r="C22">
-        <v>1.374118539813651</v>
+        <v>0.3955133927457268</v>
       </c>
       <c r="D22">
-        <v>0.01754624014905204</v>
+        <v>0.00490348976343391</v>
       </c>
       <c r="E22">
-        <v>0.1683358475003445</v>
+        <v>0.02889836676245361</v>
       </c>
       <c r="F22">
-        <v>4.346592958149813</v>
+        <v>3.942755493814815</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.250058780058026</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1472893226965475</v>
+        <v>0.08565951224313828</v>
       </c>
       <c r="K22">
-        <v>1.059773822478746</v>
+        <v>0.7604667010857042</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1807092696179424</v>
       </c>
       <c r="M22">
-        <v>1.266852230382824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.5483698451854835</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.981923698313295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.080370345546669</v>
+        <v>3.174324669731391</v>
       </c>
       <c r="C23">
-        <v>1.316153266154686</v>
+        <v>0.3804644289329531</v>
       </c>
       <c r="D23">
-        <v>0.0175766631998151</v>
+        <v>0.004651157193730882</v>
       </c>
       <c r="E23">
-        <v>0.1616184706995583</v>
+        <v>0.02891227945648556</v>
       </c>
       <c r="F23">
-        <v>4.186561893792259</v>
+        <v>3.845935834988268</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.174297443210719</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1416914545307257</v>
+        <v>0.08588826355695822</v>
       </c>
       <c r="K23">
-        <v>1.01581630294379</v>
+        <v>0.730464566147333</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1755119421005773</v>
       </c>
       <c r="M23">
-        <v>1.214080799112729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.5283002865164548</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.907481977119389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.592016207831421</v>
+        <v>2.709188791986492</v>
       </c>
       <c r="C24">
-        <v>1.103080001345916</v>
+        <v>0.3244948025598262</v>
       </c>
       <c r="D24">
-        <v>0.0177521287747382</v>
+        <v>0.003757737852573939</v>
       </c>
       <c r="E24">
-        <v>0.1370471336352637</v>
+        <v>0.02899103600647113</v>
       </c>
       <c r="F24">
-        <v>3.603158167547377</v>
+        <v>3.493487131096543</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.899055459314567</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1213199689524629</v>
+        <v>0.08683609011436744</v>
       </c>
       <c r="K24">
-        <v>0.853693153144846</v>
+        <v>0.6192578728621996</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1563830788085525</v>
       </c>
       <c r="M24">
-        <v>1.019843031404278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4540664827149001</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.636585785646645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.085599943595724</v>
+        <v>2.226021180363375</v>
       </c>
       <c r="C25">
-        <v>0.8838776774885275</v>
+        <v>0.2657842541635205</v>
       </c>
       <c r="D25">
-        <v>0.01803889138766834</v>
+        <v>0.002895713288593171</v>
       </c>
       <c r="E25">
-        <v>0.1120115663543011</v>
+        <v>0.02912670693338626</v>
       </c>
       <c r="F25">
-        <v>3.012460260967629</v>
+        <v>3.138916305224186</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.622155025014465</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1007501470253445</v>
+        <v>0.08801980344250637</v>
       </c>
       <c r="K25">
-        <v>0.6859941989715139</v>
+        <v>0.5034668800657514</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1367595687337229</v>
       </c>
       <c r="M25">
-        <v>0.8196640506282051</v>
+        <v>0.3771158298000543</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.36417492333392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.882476512229857</v>
+        <v>2.119320935305211</v>
       </c>
       <c r="C2">
-        <v>0.2235179765448549</v>
+        <v>0.4171098586367634</v>
       </c>
       <c r="D2">
-        <v>0.002322088078965834</v>
+        <v>0.0442425029986353</v>
       </c>
       <c r="E2">
-        <v>0.02926608295464739</v>
+        <v>0.04049465455705148</v>
       </c>
       <c r="F2">
-        <v>2.895596880381277</v>
+        <v>0.5566330387721763</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2908542099855396</v>
       </c>
       <c r="J2">
-        <v>0.08901912769067089</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4208937436745899</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1230225346798051</v>
+        <v>0.1611209155872544</v>
       </c>
       <c r="M2">
-        <v>0.32254386618051</v>
+        <v>0.3706063034520852</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7377931196995959</v>
       </c>
       <c r="O2">
-        <v>2.177270090739157</v>
+        <v>1.600027315575943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.655651800637116</v>
+        <v>1.842413038649937</v>
       </c>
       <c r="C3">
-        <v>0.1952741165333407</v>
+        <v>0.3765985541871828</v>
       </c>
       <c r="D3">
-        <v>0.001960537410033325</v>
+        <v>0.03996560277202121</v>
       </c>
       <c r="E3">
-        <v>0.02938346323783891</v>
+        <v>0.04184083559632734</v>
       </c>
       <c r="F3">
-        <v>2.739919878832453</v>
+        <v>0.5130226769571564</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2893681601007785</v>
       </c>
       <c r="J3">
-        <v>0.08977128461643957</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3662204719557494</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1140888993562115</v>
+        <v>0.1462115655354239</v>
       </c>
       <c r="M3">
-        <v>0.2866029544183277</v>
+        <v>0.323038255454378</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7612407984661616</v>
       </c>
       <c r="O3">
-        <v>2.057678503986651</v>
+        <v>1.503209613821895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.518866574117936</v>
+        <v>1.672664154023181</v>
       </c>
       <c r="C4">
-        <v>0.1780717649764796</v>
+        <v>0.3516727049497632</v>
       </c>
       <c r="D4">
-        <v>0.001748872549624636</v>
+        <v>0.03733060621841133</v>
       </c>
       <c r="E4">
-        <v>0.02946636097448874</v>
+        <v>0.0427140709153504</v>
       </c>
       <c r="F4">
-        <v>2.648338888037344</v>
+        <v>0.4873019451399756</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2891900193337236</v>
       </c>
       <c r="J4">
-        <v>0.09026863273204633</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3331729909404118</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1087692649067122</v>
+        <v>0.1372328850144982</v>
       </c>
       <c r="M4">
-        <v>0.2649739773327759</v>
+        <v>0.2939521867636898</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.776619620130667</v>
       </c>
       <c r="O4">
-        <v>1.987312014943129</v>
+        <v>1.447181027534157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.463686870157773</v>
+        <v>1.603537437485414</v>
       </c>
       <c r="C5">
-        <v>0.1710889480615378</v>
+        <v>0.3414995028370953</v>
       </c>
       <c r="D5">
-        <v>0.001664802645288788</v>
+        <v>0.03625440155248327</v>
       </c>
       <c r="E5">
-        <v>0.02950280052249354</v>
+        <v>0.04308150721208537</v>
       </c>
       <c r="F5">
-        <v>2.611952031443451</v>
+        <v>0.4770697200608822</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2892938179189564</v>
       </c>
       <c r="J5">
-        <v>0.09048003922784353</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.319821961786424</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1066404503751315</v>
+        <v>0.1336153852071789</v>
       </c>
       <c r="M5">
-        <v>0.2562601643131437</v>
+        <v>0.282125244759456</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.783126728829636</v>
       </c>
       <c r="O5">
-        <v>1.959349277202222</v>
+        <v>1.425158957842939</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.454556455117626</v>
+        <v>1.592061253632977</v>
       </c>
       <c r="C6">
-        <v>0.1699308880402839</v>
+        <v>0.3398092255133207</v>
       </c>
       <c r="D6">
-        <v>0.001650963581102616</v>
+        <v>0.03607554757543596</v>
       </c>
       <c r="E6">
-        <v>0.02950901006228479</v>
+        <v>0.04314321516467023</v>
       </c>
       <c r="F6">
-        <v>2.605964315744714</v>
+        <v>0.4753852518537798</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2893214730961624</v>
       </c>
       <c r="J6">
-        <v>0.09051566499843133</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3176116221621967</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.106289242193526</v>
+        <v>0.1330171223902781</v>
       </c>
       <c r="M6">
-        <v>0.2548190088400375</v>
+        <v>0.2801628245698993</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7842215397266727</v>
       </c>
       <c r="O6">
-        <v>1.954747479159721</v>
+        <v>1.421549734030464</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.518120209100488</v>
+        <v>1.671731722794704</v>
       </c>
       <c r="C7">
-        <v>0.1779774916650183</v>
+        <v>0.3515355726688796</v>
       </c>
       <c r="D7">
-        <v>0.001747730421564953</v>
+        <v>0.0373161021682975</v>
       </c>
       <c r="E7">
-        <v>0.02946684172890102</v>
+        <v>0.04271897957469495</v>
       </c>
       <c r="F7">
-        <v>2.647844477941007</v>
+        <v>0.4871629619655664</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2891907156219879</v>
       </c>
       <c r="J7">
-        <v>0.09027144872734105</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3329924835217142</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1087404005323833</v>
+        <v>0.1371839341820831</v>
       </c>
       <c r="M7">
-        <v>0.2648560671316638</v>
+        <v>0.2937925855658747</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7767064137705262</v>
       </c>
       <c r="O7">
-        <v>1.986932089883396</v>
+        <v>1.44688081398661</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.803711407333395</v>
+        <v>2.023772883741913</v>
       </c>
       <c r="C8">
-        <v>0.2137456459079203</v>
+        <v>0.4031506053832459</v>
       </c>
       <c r="D8">
-        <v>0.002195020944977699</v>
+        <v>0.04276958207461234</v>
       </c>
       <c r="E8">
-        <v>0.02930426813898412</v>
+        <v>0.04094903828453456</v>
       </c>
       <c r="F8">
-        <v>2.841041866305829</v>
+        <v>0.5413668369923457</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2901843291214661</v>
       </c>
       <c r="J8">
-        <v>0.08927097539189965</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4019244971105635</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1199061589389814</v>
+        <v>0.1559419681828516</v>
       </c>
       <c r="M8">
-        <v>0.3100539608897392</v>
+        <v>0.3541769249436868</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7456699134721276</v>
       </c>
       <c r="O8">
-        <v>2.135362815449184</v>
+        <v>1.565904677273181</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.386647745865389</v>
+        <v>2.717362151004068</v>
       </c>
       <c r="C9">
-        <v>0.2853827079247253</v>
+        <v>0.5040928720742954</v>
       </c>
       <c r="D9">
-        <v>0.003174997986093331</v>
+        <v>0.05340135367819698</v>
       </c>
       <c r="E9">
-        <v>0.02907462182752329</v>
+        <v>0.03785549137123478</v>
       </c>
       <c r="F9">
-        <v>3.255331525655464</v>
+        <v>0.6568258718545081</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2983510096995126</v>
       </c>
       <c r="J9">
-        <v>0.08760053603463547</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5419988242989291</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1432494790927734</v>
+        <v>0.1942556875863559</v>
       </c>
       <c r="M9">
-        <v>0.4026755050586814</v>
+        <v>0.4737726837907701</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6929191283974632</v>
       </c>
       <c r="O9">
-        <v>2.453605082867696</v>
+        <v>1.82879083389227</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.833783757609694</v>
+        <v>3.23054560259817</v>
       </c>
       <c r="C10">
-        <v>0.3395312567855626</v>
+        <v>0.5782981748348845</v>
       </c>
       <c r="D10">
-        <v>0.00399083253419974</v>
+        <v>0.06118794716185505</v>
       </c>
       <c r="E10">
-        <v>0.02896544799317313</v>
+        <v>0.03582258908117852</v>
       </c>
       <c r="F10">
-        <v>3.58691512868316</v>
+        <v>0.748402195684406</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3087175185646842</v>
       </c>
       <c r="J10">
-        <v>0.0865655651217061</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6490679808415933</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1614875228596944</v>
+        <v>0.2235380823842235</v>
       </c>
       <c r="M10">
-        <v>0.4739386527208467</v>
+        <v>0.5626983794021143</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6595782776246395</v>
       </c>
       <c r="O10">
-        <v>2.708382650599674</v>
+        <v>2.043396599101811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.042526325292044</v>
+        <v>3.465181315159782</v>
       </c>
       <c r="C11">
-        <v>0.3646481575526934</v>
+        <v>0.6121168380574602</v>
       </c>
       <c r="D11">
-        <v>0.004391520253234305</v>
+        <v>0.06472820028795923</v>
       </c>
       <c r="E11">
-        <v>0.0289300850095664</v>
+        <v>0.03495215382003192</v>
       </c>
       <c r="F11">
-        <v>3.74507652932013</v>
+        <v>0.7918037801487969</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3145179454489906</v>
       </c>
       <c r="J11">
-        <v>0.08614013103257534</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6989746910086154</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1700723798474257</v>
+        <v>0.2371532302566948</v>
       </c>
       <c r="M11">
-        <v>0.5072533088710074</v>
+        <v>0.6034639527299177</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.645697879005958</v>
       </c>
       <c r="O11">
-        <v>2.82994625197756</v>
+        <v>2.146516859850038</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.122455272838408</v>
+        <v>3.554236630646074</v>
       </c>
       <c r="C12">
-        <v>0.3742435207521453</v>
+        <v>0.6249365744232023</v>
       </c>
       <c r="D12">
-        <v>0.004548357859450292</v>
+        <v>0.06606880384568115</v>
       </c>
       <c r="E12">
-        <v>0.02891888561395861</v>
+        <v>0.03463056118383046</v>
       </c>
       <c r="F12">
-        <v>3.806153372299036</v>
+        <v>0.8085140299411648</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3168825781758287</v>
       </c>
       <c r="J12">
-        <v>0.08598590064596934</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7180734770808002</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1733695383188731</v>
+        <v>0.2423554825996206</v>
       </c>
       <c r="M12">
-        <v>0.5200161552166875</v>
+        <v>0.6189529053801337</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6406367724389597</v>
       </c>
       <c r="O12">
-        <v>2.876897727289702</v>
+        <v>2.186430115481841</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.105199912589569</v>
+        <v>3.535047349977106</v>
       </c>
       <c r="C13">
-        <v>0.3721729960801952</v>
+        <v>0.6221749475089098</v>
       </c>
       <c r="D13">
-        <v>0.004514338041555988</v>
+        <v>0.06578007711622291</v>
       </c>
       <c r="E13">
-        <v>0.02892119775441504</v>
+        <v>0.03469946169301918</v>
       </c>
       <c r="F13">
-        <v>3.792944441959378</v>
+        <v>0.8049025411886817</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3163656316390373</v>
       </c>
       <c r="J13">
-        <v>0.08601880534109618</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7139508342284628</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1726572964892199</v>
+        <v>0.2412329475899639</v>
       </c>
       <c r="M13">
-        <v>0.5172605811983431</v>
+        <v>0.6156146574602772</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.641717927258135</v>
       </c>
       <c r="O13">
-        <v>2.86674328482394</v>
+        <v>2.177794432549774</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.04908373171088</v>
+        <v>3.47250366379825</v>
       </c>
       <c r="C14">
-        <v>0.365435798405656</v>
+        <v>0.6131712316083338</v>
       </c>
       <c r="D14">
-        <v>0.004404315709027884</v>
+        <v>0.06483849125501706</v>
       </c>
       <c r="E14">
-        <v>0.0289291188555878</v>
+        <v>0.03492553419238087</v>
       </c>
       <c r="F14">
-        <v>3.750076810695703</v>
+        <v>0.7931728851743856</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3147090428430559</v>
       </c>
       <c r="J14">
-        <v>0.08612730255304335</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.700541777942135</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1703426824891707</v>
+        <v>0.2375802661331363</v>
       </c>
       <c r="M14">
-        <v>0.5083002509197243</v>
+        <v>0.6047371561937993</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6452775284231791</v>
       </c>
       <c r="O14">
-        <v>2.833789945574125</v>
+        <v>2.149782793920764</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.014829539548543</v>
+        <v>3.434221431886044</v>
       </c>
       <c r="C15">
-        <v>0.3613204871050471</v>
+        <v>0.6076580698348266</v>
       </c>
       <c r="D15">
-        <v>0.004337616267823918</v>
+        <v>0.06426174905156756</v>
       </c>
       <c r="E15">
-        <v>0.02893426054962456</v>
+        <v>0.03506506121965014</v>
       </c>
       <c r="F15">
-        <v>3.723977572000024</v>
+        <v>0.7860246989580162</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3137166059898675</v>
       </c>
       <c r="J15">
-        <v>0.08619466614084814</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6923552885679953</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1689310907746062</v>
+        <v>0.2353490758956411</v>
       </c>
       <c r="M15">
-        <v>0.5028315547500384</v>
+        <v>0.5980813479252092</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6474836056740472</v>
       </c>
       <c r="O15">
-        <v>2.81372789367768</v>
+        <v>2.132739630871015</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.820258897488827</v>
+        <v>3.215238262518369</v>
       </c>
       <c r="C16">
-        <v>0.337900754827416</v>
+        <v>0.5760896654922192</v>
       </c>
       <c r="D16">
-        <v>0.003965311840202546</v>
+        <v>0.06095656676141203</v>
       </c>
       <c r="E16">
-        <v>0.02896805794827451</v>
+        <v>0.03588058511602066</v>
       </c>
       <c r="F16">
-        <v>3.576737172598001</v>
+        <v>0.7456029190757647</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3083612942693605</v>
       </c>
       <c r="J16">
-        <v>0.08659431018515562</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6458329016838178</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1609326818694825</v>
+        <v>0.2226545737659933</v>
       </c>
       <c r="M16">
-        <v>0.4717810285146413</v>
+        <v>0.5600411290277947</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6605121307278168</v>
       </c>
       <c r="O16">
-        <v>2.700560743403045</v>
+        <v>2.036774202107381</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.702341185746491</v>
+        <v>3.08122585466441</v>
       </c>
       <c r="C17">
-        <v>0.3236673529524978</v>
+        <v>0.5567424303717132</v>
       </c>
       <c r="D17">
-        <v>0.003745057463449442</v>
+        <v>0.05892863539870064</v>
       </c>
       <c r="E17">
-        <v>0.02899254467861745</v>
+        <v>0.03639494565302348</v>
       </c>
       <c r="F17">
-        <v>3.488374513188518</v>
+        <v>0.7212687137615319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3053621892736551</v>
       </c>
       <c r="J17">
-        <v>0.08685133680323709</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6176190307521026</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1561030065850844</v>
+        <v>0.2149451864486593</v>
       </c>
       <c r="M17">
-        <v>0.4529746305299085</v>
+        <v>0.5367895812735384</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6688411976565689</v>
       </c>
       <c r="O17">
-        <v>2.632657124957674</v>
+        <v>1.979360740307158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.63501287559194</v>
+        <v>3.004254950715449</v>
       </c>
       <c r="C18">
-        <v>0.3155253130057929</v>
+        <v>0.5456199921582368</v>
       </c>
       <c r="D18">
-        <v>0.003621097483023306</v>
+        <v>0.05776202662993768</v>
       </c>
       <c r="E18">
-        <v>0.029007965681215</v>
+        <v>0.03669589412205676</v>
       </c>
       <c r="F18">
-        <v>3.438231169077369</v>
+        <v>0.7074348317298274</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3037385003615043</v>
       </c>
       <c r="J18">
-        <v>0.08700342020032537</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6015023201948111</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1533519217932238</v>
+        <v>0.2105383999813739</v>
       </c>
       <c r="M18">
-        <v>0.4422408738410297</v>
+        <v>0.5234449063834461</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6737523073600116</v>
       </c>
       <c r="O18">
-        <v>2.594127042464024</v>
+        <v>1.946850546294343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.612298358577107</v>
+        <v>2.978211755827715</v>
       </c>
       <c r="C19">
-        <v>0.3127758112101162</v>
+        <v>0.5418549565010551</v>
       </c>
       <c r="D19">
-        <v>0.003579570581786484</v>
+        <v>0.05736699160520686</v>
       </c>
       <c r="E19">
-        <v>0.02901341276353664</v>
+        <v>0.0367986601899446</v>
       </c>
       <c r="F19">
-        <v>3.421366598882599</v>
+        <v>0.7027781129989705</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3032057910459116</v>
       </c>
       <c r="J19">
-        <v>0.08705563273992034</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5960637811808169</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1524249196858491</v>
+        <v>0.209050930312273</v>
       </c>
       <c r="M19">
-        <v>0.4386203690656743</v>
+        <v>0.5189314067057538</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6754355151911184</v>
       </c>
       <c r="O19">
-        <v>2.581168839843073</v>
+        <v>1.9359290158622</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.714841721326366</v>
+        <v>3.095480139324422</v>
       </c>
       <c r="C20">
-        <v>0.3251778038214468</v>
+        <v>0.5588013685355975</v>
       </c>
       <c r="D20">
-        <v>0.003768216130564994</v>
+        <v>0.05914453064206526</v>
       </c>
       <c r="E20">
-        <v>0.02898979874289864</v>
+        <v>0.03633966159618929</v>
       </c>
       <c r="F20">
-        <v>3.497709530878609</v>
+        <v>0.7238421412494489</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3056708776830419</v>
       </c>
       <c r="J20">
-        <v>0.08682353378570795</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6206107508491954</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1566143252206942</v>
+        <v>0.2157629938280365</v>
       </c>
       <c r="M20">
-        <v>0.4549678677730711</v>
+        <v>0.539261698216599</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6679420170147594</v>
       </c>
       <c r="O20">
-        <v>2.639830399691121</v>
+        <v>1.985418941131513</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.065541476205738</v>
+        <v>3.490868449361983</v>
       </c>
       <c r="C21">
-        <v>0.3674122690631521</v>
+        <v>0.6158154422740267</v>
       </c>
       <c r="D21">
-        <v>0.00443648593293311</v>
+        <v>0.06511505603507572</v>
       </c>
       <c r="E21">
-        <v>0.02892673157393322</v>
+        <v>0.03485891178614509</v>
       </c>
       <c r="F21">
-        <v>3.762634801639194</v>
+        <v>0.7966105030860859</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3151909588515451</v>
       </c>
       <c r="J21">
-        <v>0.08609524482704067</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7044746737313901</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1710212442621284</v>
+        <v>0.2386518509503901</v>
       </c>
       <c r="M21">
-        <v>0.5109279623577834</v>
+        <v>0.6079306752308682</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6442266085434909</v>
       </c>
       <c r="O21">
-        <v>2.843443342966538</v>
+        <v>2.157986433399856</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.299952188870577</v>
+        <v>3.750483188917087</v>
       </c>
       <c r="C22">
-        <v>0.3955133927457268</v>
+        <v>0.6531575206318792</v>
       </c>
       <c r="D22">
-        <v>0.00490348976343391</v>
+        <v>0.06901719655107996</v>
       </c>
       <c r="E22">
-        <v>0.02889836676245361</v>
+        <v>0.0339380205747184</v>
       </c>
       <c r="F22">
-        <v>3.942755493814815</v>
+        <v>0.8457843733506678</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3223991693924475</v>
       </c>
       <c r="J22">
-        <v>0.08565951224313828</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7604667010857042</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1807092696179424</v>
+        <v>0.2538841656764248</v>
       </c>
       <c r="M22">
-        <v>0.5483698451854835</v>
+        <v>0.6531160160874592</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.629869578948302</v>
       </c>
       <c r="O22">
-        <v>2.981923698313295</v>
+        <v>2.275842479247245</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.174324669731391</v>
+        <v>3.611799910784327</v>
       </c>
       <c r="C23">
-        <v>0.3804644289329531</v>
+        <v>0.6332184732038399</v>
       </c>
       <c r="D23">
-        <v>0.004651157193730882</v>
+        <v>0.06693445408561161</v>
       </c>
       <c r="E23">
-        <v>0.02891227945648556</v>
+        <v>0.03442515793845358</v>
       </c>
       <c r="F23">
-        <v>3.845935834988268</v>
+        <v>0.8193830288927302</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3184575263653358</v>
       </c>
       <c r="J23">
-        <v>0.08588826355695822</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.730464566147333</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1755119421005773</v>
+        <v>0.2457279543820334</v>
       </c>
       <c r="M23">
-        <v>0.5283002865164548</v>
+        <v>0.628969305436577</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6374241568427763</v>
       </c>
       <c r="O23">
-        <v>2.907481977119389</v>
+        <v>2.212450561707101</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.709188791986492</v>
+        <v>3.089035547310118</v>
       </c>
       <c r="C24">
-        <v>0.3244948025598262</v>
+        <v>0.5578705212207353</v>
       </c>
       <c r="D24">
-        <v>0.003757737852573939</v>
+        <v>0.05904692667715494</v>
       </c>
       <c r="E24">
-        <v>0.02899103600647113</v>
+        <v>0.03636463922572508</v>
       </c>
       <c r="F24">
-        <v>3.493487131096543</v>
+        <v>0.7226782100484428</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3055310074146078</v>
       </c>
       <c r="J24">
-        <v>0.08683609011436744</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6192578728621996</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1563830788085525</v>
+        <v>0.2153931841730667</v>
       </c>
       <c r="M24">
-        <v>0.4540664827149001</v>
+        <v>0.5381439831813566</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6683481554106763</v>
       </c>
       <c r="O24">
-        <v>2.636585785646645</v>
+        <v>1.982678484228558</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.226021180363375</v>
+        <v>2.529219827542533</v>
       </c>
       <c r="C25">
-        <v>0.2657842541635205</v>
+        <v>0.4767939722018184</v>
       </c>
       <c r="D25">
-        <v>0.002895713288593171</v>
+        <v>0.0505305257738442</v>
       </c>
       <c r="E25">
-        <v>0.02912670693338626</v>
+        <v>0.03865098951320789</v>
       </c>
       <c r="F25">
-        <v>3.138916305224186</v>
+        <v>0.6244944332096054</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.29541870348298</v>
       </c>
       <c r="J25">
-        <v>0.08801980344250637</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5034668800657514</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1367595687337229</v>
+        <v>0.1837070873745716</v>
       </c>
       <c r="M25">
-        <v>0.3771158298000543</v>
+        <v>0.4412587663603063</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.706274478348746</v>
       </c>
       <c r="O25">
-        <v>2.36417492333392</v>
+        <v>1.754169989527156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.119320935305211</v>
+        <v>0.868554723999523</v>
       </c>
       <c r="C2">
-        <v>0.4171098586367634</v>
+        <v>0.2230895546694285</v>
       </c>
       <c r="D2">
-        <v>0.0442425029986353</v>
+        <v>0.02541487974610135</v>
       </c>
       <c r="E2">
-        <v>0.04049465455705148</v>
+        <v>0.1093082662282425</v>
       </c>
       <c r="F2">
-        <v>0.5566330387721763</v>
+        <v>0.7337237621415937</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2908542099855396</v>
+        <v>0.6503881080935159</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1611209155872544</v>
+        <v>0.2035184872959732</v>
       </c>
       <c r="M2">
-        <v>0.3706063034520852</v>
+        <v>0.2039161632910051</v>
       </c>
       <c r="N2">
-        <v>0.7377931196995959</v>
+        <v>1.278446630484339</v>
       </c>
       <c r="O2">
-        <v>1.600027315575943</v>
+        <v>2.510429043626402</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.842413038649937</v>
+        <v>0.7866008231924866</v>
       </c>
       <c r="C3">
-        <v>0.3765985541871828</v>
+        <v>0.209625235377473</v>
       </c>
       <c r="D3">
-        <v>0.03996560277202121</v>
+        <v>0.02394862812381859</v>
       </c>
       <c r="E3">
-        <v>0.04184083559632734</v>
+        <v>0.1102144949870643</v>
       </c>
       <c r="F3">
-        <v>0.5130226769571564</v>
+        <v>0.7287116675615835</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2893681601007785</v>
+        <v>0.6558186271010094</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1462115655354239</v>
+        <v>0.200750244957085</v>
       </c>
       <c r="M3">
-        <v>0.323038255454378</v>
+        <v>0.1906489805552667</v>
       </c>
       <c r="N3">
-        <v>0.7612407984661616</v>
+        <v>1.289411023549796</v>
       </c>
       <c r="O3">
-        <v>1.503209613821895</v>
+        <v>2.507811326002326</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.672664154023181</v>
+        <v>0.7363698976328124</v>
       </c>
       <c r="C4">
-        <v>0.3516727049497632</v>
+        <v>0.2012869645223674</v>
       </c>
       <c r="D4">
-        <v>0.03733060621841133</v>
+        <v>0.02304062198928847</v>
       </c>
       <c r="E4">
-        <v>0.0427140709153504</v>
+        <v>0.1108039141966772</v>
       </c>
       <c r="F4">
-        <v>0.4873019451399756</v>
+        <v>0.7261286202203507</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2891900193337236</v>
+        <v>0.6595363778697489</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1372328850144982</v>
+        <v>0.1991511633465564</v>
       </c>
       <c r="M4">
-        <v>0.2939521867636898</v>
+        <v>0.1825620133722836</v>
       </c>
       <c r="N4">
-        <v>0.776619620130667</v>
+        <v>1.296623658830342</v>
       </c>
       <c r="O4">
-        <v>1.447181027534157</v>
+        <v>2.507846823385421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.603537437485414</v>
+        <v>0.7159241101786051</v>
       </c>
       <c r="C5">
-        <v>0.3414995028370953</v>
+        <v>0.197871324049089</v>
       </c>
       <c r="D5">
-        <v>0.03625440155248327</v>
+        <v>0.02266868007407652</v>
       </c>
       <c r="E5">
-        <v>0.04308150721208537</v>
+        <v>0.1110524143337099</v>
       </c>
       <c r="F5">
-        <v>0.4770697200608822</v>
+        <v>0.7252002856644708</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2892938179189564</v>
+        <v>0.6611477443888951</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1336153852071789</v>
+        <v>0.1985248895987368</v>
       </c>
       <c r="M5">
-        <v>0.282125244759456</v>
+        <v>0.1792815925659283</v>
       </c>
       <c r="N5">
-        <v>0.783126728829636</v>
+        <v>1.299683767271169</v>
       </c>
       <c r="O5">
-        <v>1.425158957842939</v>
+        <v>2.508274158580491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.592061253632977</v>
+        <v>0.7125305743480794</v>
       </c>
       <c r="C6">
-        <v>0.3398092255133207</v>
+        <v>0.1973030934977089</v>
       </c>
       <c r="D6">
-        <v>0.03607554757543596</v>
+        <v>0.0226068038938152</v>
       </c>
       <c r="E6">
-        <v>0.04314321516467023</v>
+        <v>0.1110941796437102</v>
       </c>
       <c r="F6">
-        <v>0.4753852518537798</v>
+        <v>0.7250536412817326</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2893214730961624</v>
+        <v>0.6614211284807361</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1330171223902781</v>
+        <v>0.1984224310905489</v>
       </c>
       <c r="M6">
-        <v>0.2801628245698993</v>
+        <v>0.1787377985183909</v>
       </c>
       <c r="N6">
-        <v>0.7842215397266727</v>
+        <v>1.300199200698486</v>
       </c>
       <c r="O6">
-        <v>1.421549734030464</v>
+        <v>2.508370047095468</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.671731722794704</v>
+        <v>0.7360940607944144</v>
       </c>
       <c r="C7">
-        <v>0.3515355726688796</v>
+        <v>0.2012409715687511</v>
       </c>
       <c r="D7">
-        <v>0.0373161021682975</v>
+        <v>0.02303561360680817</v>
       </c>
       <c r="E7">
-        <v>0.04271897957469495</v>
+        <v>0.1108072319065438</v>
       </c>
       <c r="F7">
-        <v>0.4871629619655664</v>
+        <v>0.7261155972353777</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2891907156219879</v>
+        <v>0.6595577192648285</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1371839341820831</v>
+        <v>0.1991426144169424</v>
       </c>
       <c r="M7">
-        <v>0.2937925855658747</v>
+        <v>0.1825177111122684</v>
       </c>
       <c r="N7">
-        <v>0.7767064137705262</v>
+        <v>1.296664438882367</v>
       </c>
       <c r="O7">
-        <v>1.44688081398661</v>
+        <v>2.507850915182161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.023772883741913</v>
+        <v>0.8402792903086151</v>
       </c>
       <c r="C8">
-        <v>0.4031506053832459</v>
+        <v>0.2184619098921132</v>
       </c>
       <c r="D8">
-        <v>0.04276958207461234</v>
+        <v>0.02491093020738333</v>
       </c>
       <c r="E8">
-        <v>0.04094903828453456</v>
+        <v>0.1096138933733757</v>
       </c>
       <c r="F8">
-        <v>0.5413668369923457</v>
+        <v>0.7318929501761104</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2901843291214661</v>
+        <v>0.6521809458837176</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1559419681828516</v>
+        <v>0.2025431465326761</v>
       </c>
       <c r="M8">
-        <v>0.3541769249436868</v>
+        <v>0.1993294885757422</v>
       </c>
       <c r="N8">
-        <v>0.7456699134721276</v>
+        <v>1.282127486823981</v>
       </c>
       <c r="O8">
-        <v>1.565904677273181</v>
+        <v>2.509185352070745</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.717362151004068</v>
+        <v>1.04524546286973</v>
       </c>
       <c r="C9">
-        <v>0.5040928720742954</v>
+        <v>0.2516623280749002</v>
       </c>
       <c r="D9">
-        <v>0.05340135367819698</v>
+        <v>0.02852644670926452</v>
       </c>
       <c r="E9">
-        <v>0.03785549137123478</v>
+        <v>0.1075350074939618</v>
       </c>
       <c r="F9">
-        <v>0.6568258718545081</v>
+        <v>0.7471488321144761</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2983510096995126</v>
+        <v>0.6407597876439617</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1942556875863559</v>
+        <v>0.2100079451870585</v>
       </c>
       <c r="M9">
-        <v>0.4737726837907701</v>
+        <v>0.2327589209310261</v>
       </c>
       <c r="N9">
-        <v>0.6929191283974632</v>
+        <v>1.257428932265888</v>
       </c>
       <c r="O9">
-        <v>1.82879083389227</v>
+        <v>2.524851093627774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.23054560259817</v>
+        <v>1.196186840197811</v>
       </c>
       <c r="C10">
-        <v>0.5782981748348845</v>
+        <v>0.2757021534029889</v>
       </c>
       <c r="D10">
-        <v>0.06118794716185505</v>
+        <v>0.03114427024885202</v>
       </c>
       <c r="E10">
-        <v>0.03582258908117852</v>
+        <v>0.1061661635196298</v>
       </c>
       <c r="F10">
-        <v>0.748402195684406</v>
+        <v>0.7607586634862429</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3087175185646842</v>
+        <v>0.6342287566908382</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2235380823842235</v>
+        <v>0.2159758550657216</v>
       </c>
       <c r="M10">
-        <v>0.5626983794021143</v>
+        <v>0.2575932380129018</v>
       </c>
       <c r="N10">
-        <v>0.6595782776246395</v>
+        <v>1.241599453196393</v>
       </c>
       <c r="O10">
-        <v>2.043396599101811</v>
+        <v>2.544341185788653</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.465181315159782</v>
+        <v>1.264921059430606</v>
       </c>
       <c r="C11">
-        <v>0.6121168380574602</v>
+        <v>0.2865609784079766</v>
       </c>
       <c r="D11">
-        <v>0.06472820028795923</v>
+        <v>0.03232668827989471</v>
       </c>
       <c r="E11">
-        <v>0.03495215382003192</v>
+        <v>0.1055777004257199</v>
       </c>
       <c r="F11">
-        <v>0.7918037801487969</v>
+        <v>0.7674733401018159</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.3145179454489906</v>
+        <v>0.6316624086232991</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2371532302566948</v>
+        <v>0.2187954406617934</v>
       </c>
       <c r="M11">
-        <v>0.6034639527299177</v>
+        <v>0.2689489737203914</v>
       </c>
       <c r="N11">
-        <v>0.645697879005958</v>
+        <v>1.234900224204125</v>
       </c>
       <c r="O11">
-        <v>2.146516859850038</v>
+        <v>2.554946461127571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.554236630646074</v>
+        <v>1.290957879753762</v>
       </c>
       <c r="C12">
-        <v>0.6249365744232023</v>
+        <v>0.2906617261323561</v>
       </c>
       <c r="D12">
-        <v>0.06606880384568115</v>
+        <v>0.03277320792186345</v>
       </c>
       <c r="E12">
-        <v>0.03463056118383046</v>
+        <v>0.105359775680931</v>
       </c>
       <c r="F12">
-        <v>0.8085140299411648</v>
+        <v>0.7700913820657007</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3168825781758287</v>
+        <v>0.6307488579327938</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2423554825996206</v>
+        <v>0.2198781590972061</v>
       </c>
       <c r="M12">
-        <v>0.6189529053801337</v>
+        <v>0.2732573227625466</v>
       </c>
       <c r="N12">
-        <v>0.6406367724389597</v>
+        <v>1.232435478975681</v>
       </c>
       <c r="O12">
-        <v>2.186430115481841</v>
+        <v>2.559212844790693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.535047349977106</v>
+        <v>1.285350022181035</v>
       </c>
       <c r="C13">
-        <v>0.6221749475089098</v>
+        <v>0.289779060101381</v>
       </c>
       <c r="D13">
-        <v>0.06578007711622291</v>
+        <v>0.03267709727199986</v>
       </c>
       <c r="E13">
-        <v>0.03469946169301918</v>
+        <v>0.10540649128765</v>
       </c>
       <c r="F13">
-        <v>0.8049025411886817</v>
+        <v>0.7695241881704931</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3163656316390373</v>
+        <v>0.6309430145696737</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2412329475899639</v>
+        <v>0.2196443100375234</v>
       </c>
       <c r="M13">
-        <v>0.6156146574602772</v>
+        <v>0.2723290826513036</v>
       </c>
       <c r="N13">
-        <v>0.641717927258135</v>
+        <v>1.232963099458267</v>
       </c>
       <c r="O13">
-        <v>2.177794432549774</v>
+        <v>2.558282861389472</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.47250366379825</v>
+        <v>1.267062958902045</v>
       </c>
       <c r="C14">
-        <v>0.6131712316083338</v>
+        <v>0.2868985759561724</v>
       </c>
       <c r="D14">
-        <v>0.06483849125501706</v>
+        <v>0.03236344862632023</v>
       </c>
       <c r="E14">
-        <v>0.03492553419238087</v>
+        <v>0.1055596732035387</v>
       </c>
       <c r="F14">
-        <v>0.7931728851743856</v>
+        <v>0.7676872177237897</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3147090428430559</v>
+        <v>0.631586081983059</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2375802661331363</v>
+        <v>0.2188842162342439</v>
       </c>
       <c r="M14">
-        <v>0.6047371561937993</v>
+        <v>0.269303261604847</v>
       </c>
       <c r="N14">
-        <v>0.6452775284231791</v>
+        <v>1.234696003169653</v>
       </c>
       <c r="O14">
-        <v>2.149782793920764</v>
+        <v>2.555292439001732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.434221431886044</v>
+        <v>1.25586269024285</v>
       </c>
       <c r="C15">
-        <v>0.6076580698348266</v>
+        <v>0.2851327253684417</v>
       </c>
       <c r="D15">
-        <v>0.06426174905156756</v>
+        <v>0.03217116809584297</v>
       </c>
       <c r="E15">
-        <v>0.03506506121965014</v>
+        <v>0.105654141164234</v>
       </c>
       <c r="F15">
-        <v>0.7860246989580162</v>
+        <v>0.7665718335318132</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3137166059898675</v>
+        <v>0.6319875701771025</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2353490758956411</v>
+        <v>0.2184205888016493</v>
       </c>
       <c r="M15">
-        <v>0.5980813479252092</v>
+        <v>0.2674509170577579</v>
       </c>
       <c r="N15">
-        <v>0.6474836056740472</v>
+        <v>1.235766846310739</v>
       </c>
       <c r="O15">
-        <v>2.132739630871015</v>
+        <v>2.55349333706323</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.215238262518369</v>
+        <v>1.19169618775328</v>
       </c>
       <c r="C16">
-        <v>0.5760896654922192</v>
+        <v>0.2749909386322997</v>
       </c>
       <c r="D16">
-        <v>0.06095656676141203</v>
+        <v>0.03106682464807875</v>
       </c>
       <c r="E16">
-        <v>0.03588058511602066</v>
+        <v>0.1062053090172772</v>
       </c>
       <c r="F16">
-        <v>0.7456029190757647</v>
+        <v>0.7603303829543648</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3083612942693605</v>
+        <v>0.6344046231386997</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2226545737659933</v>
+        <v>0.2157936912231833</v>
       </c>
       <c r="M16">
-        <v>0.5600411290277947</v>
+        <v>0.2568522710006107</v>
       </c>
       <c r="N16">
-        <v>0.6605121307278168</v>
+        <v>1.242047355693195</v>
       </c>
       <c r="O16">
-        <v>2.036774202107381</v>
+        <v>2.543683128564908</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.08122585466441</v>
+        <v>1.152349082233172</v>
       </c>
       <c r="C17">
-        <v>0.5567424303717132</v>
+        <v>0.2687494286349761</v>
       </c>
       <c r="D17">
-        <v>0.05892863539870064</v>
+        <v>0.03038716738219449</v>
       </c>
       <c r="E17">
-        <v>0.03639494565302348</v>
+        <v>0.1065521936406091</v>
       </c>
       <c r="F17">
-        <v>0.7212687137615319</v>
+        <v>0.7566355793734658</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3053621892736551</v>
+        <v>0.6359911055545631</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2149451864486593</v>
+        <v>0.2142089612493265</v>
       </c>
       <c r="M17">
-        <v>0.5367895812735384</v>
+        <v>0.2503651587298208</v>
       </c>
       <c r="N17">
-        <v>0.6688411976565689</v>
+        <v>1.246028711977139</v>
       </c>
       <c r="O17">
-        <v>1.979360740307158</v>
+        <v>2.538110539547318</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.004254950715449</v>
+        <v>1.129724363880428</v>
       </c>
       <c r="C18">
-        <v>0.5456199921582368</v>
+        <v>0.2651522391398373</v>
       </c>
       <c r="D18">
-        <v>0.05776202662993768</v>
+        <v>0.02999545313528529</v>
       </c>
       <c r="E18">
-        <v>0.03669589412205676</v>
+        <v>0.1067549350036736</v>
       </c>
       <c r="F18">
-        <v>0.7074348317298274</v>
+        <v>0.7545596964181698</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3037385003615043</v>
+        <v>0.636941691065541</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2105383999813739</v>
+        <v>0.2133073300191057</v>
       </c>
       <c r="M18">
-        <v>0.5234449063834461</v>
+        <v>0.2466394615731815</v>
       </c>
       <c r="N18">
-        <v>0.6737523073600116</v>
+        <v>1.248365905097849</v>
       </c>
       <c r="O18">
-        <v>1.946850546294343</v>
+        <v>2.535069010940532</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.978211755827715</v>
+        <v>1.122065216821397</v>
       </c>
       <c r="C19">
-        <v>0.5418549565010551</v>
+        <v>0.2639330549127124</v>
       </c>
       <c r="D19">
-        <v>0.05736699160520686</v>
+        <v>0.02986268984005847</v>
       </c>
       <c r="E19">
-        <v>0.0367986601899446</v>
+        <v>0.1068241334857625</v>
       </c>
       <c r="F19">
-        <v>0.7027781129989705</v>
+        <v>0.7538652984473231</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3032057910459116</v>
+        <v>0.6372700812599632</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.209050930312273</v>
+        <v>0.2130037491011478</v>
       </c>
       <c r="M19">
-        <v>0.5189314067057538</v>
+        <v>0.2453789593374296</v>
       </c>
       <c r="N19">
-        <v>0.6754355151911184</v>
+        <v>1.249165350095794</v>
       </c>
       <c r="O19">
-        <v>1.9359290158622</v>
+        <v>2.534067303822383</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.095480139324422</v>
+        <v>1.156536966175679</v>
       </c>
       <c r="C20">
-        <v>0.5588013685355975</v>
+        <v>0.2694145984389138</v>
       </c>
       <c r="D20">
-        <v>0.05914453064206526</v>
+        <v>0.03045960032996931</v>
       </c>
       <c r="E20">
-        <v>0.03633966159618929</v>
+        <v>0.1065149337281874</v>
       </c>
       <c r="F20">
-        <v>0.7238421412494489</v>
+        <v>0.7570237977754317</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3056708776830419</v>
+        <v>0.6358182797765402</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2157629938280365</v>
+        <v>0.2143766380621912</v>
       </c>
       <c r="M20">
-        <v>0.539261698216599</v>
+        <v>0.2510551534617562</v>
       </c>
       <c r="N20">
-        <v>0.6679420170147594</v>
+        <v>1.245600002728928</v>
       </c>
       <c r="O20">
-        <v>1.985418941131513</v>
+        <v>2.538686808921028</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.490868449361983</v>
+        <v>1.272434088987893</v>
       </c>
       <c r="C21">
-        <v>0.6158154422740267</v>
+        <v>0.287744950823452</v>
       </c>
       <c r="D21">
-        <v>0.06511505603507572</v>
+        <v>0.03245560857011043</v>
       </c>
       <c r="E21">
-        <v>0.03485891178614509</v>
+        <v>0.1055145466825134</v>
       </c>
       <c r="F21">
-        <v>0.7966105030860859</v>
+        <v>0.7682247352931881</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3151909588515451</v>
+        <v>0.6313956154277349</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2386518509503901</v>
+        <v>0.2191070675293787</v>
       </c>
       <c r="M21">
-        <v>0.6079306752308682</v>
+        <v>0.2701917984746984</v>
       </c>
       <c r="N21">
-        <v>0.6442266085434909</v>
+        <v>1.234185050618017</v>
       </c>
       <c r="O21">
-        <v>2.157986433399856</v>
+        <v>2.556164000409723</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.750483188917087</v>
+        <v>1.348229389395613</v>
       </c>
       <c r="C22">
-        <v>0.6531575206318792</v>
+        <v>0.2996592177675836</v>
       </c>
       <c r="D22">
-        <v>0.06901719655107996</v>
+        <v>0.03375289826872319</v>
       </c>
       <c r="E22">
-        <v>0.0339380205747184</v>
+        <v>0.1048893712228889</v>
       </c>
       <c r="F22">
-        <v>0.8457843733506678</v>
+        <v>0.7759843601248235</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3223991693924475</v>
+        <v>0.6288448261447215</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2538841656764248</v>
+        <v>0.2222860947501886</v>
       </c>
       <c r="M22">
-        <v>0.6531160160874592</v>
+        <v>0.2827462649922197</v>
       </c>
       <c r="N22">
-        <v>0.629869578948302</v>
+        <v>1.22714500381219</v>
       </c>
       <c r="O22">
-        <v>2.275842479247245</v>
+        <v>2.569045997061778</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.611799910784327</v>
+        <v>1.307771925503005</v>
       </c>
       <c r="C23">
-        <v>0.6332184732038399</v>
+        <v>0.2933064180554368</v>
       </c>
       <c r="D23">
-        <v>0.06693445408561161</v>
+        <v>0.03306117807824194</v>
       </c>
       <c r="E23">
-        <v>0.03442515793845358</v>
+        <v>0.1052204219239066</v>
       </c>
       <c r="F23">
-        <v>0.8193830288927302</v>
+        <v>0.7718026987780462</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3184575263653358</v>
+        <v>0.6301751230646033</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2457279543820334</v>
+        <v>0.2205814094638896</v>
       </c>
       <c r="M23">
-        <v>0.628969305436577</v>
+        <v>0.2760414342386284</v>
       </c>
       <c r="N23">
-        <v>0.6374241568427763</v>
+        <v>1.230863963343076</v>
       </c>
       <c r="O23">
-        <v>2.212450561707101</v>
+        <v>2.562036973912711</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.089035547310118</v>
+        <v>1.154643634772867</v>
       </c>
       <c r="C24">
-        <v>0.5578705212207353</v>
+        <v>0.2691139027641043</v>
       </c>
       <c r="D24">
-        <v>0.05904692667715494</v>
+        <v>0.03042685641456444</v>
       </c>
       <c r="E24">
-        <v>0.03636463922572508</v>
+        <v>0.1065317686151008</v>
       </c>
       <c r="F24">
-        <v>0.7226782100484428</v>
+        <v>0.7568481337617641</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3055310074146078</v>
+        <v>0.6358962944046027</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2153931841730667</v>
+        <v>0.2143008019317563</v>
       </c>
       <c r="M24">
-        <v>0.5381439831813566</v>
+        <v>0.2507431948956977</v>
       </c>
       <c r="N24">
-        <v>0.6683481554106763</v>
+        <v>1.245793671853825</v>
       </c>
       <c r="O24">
-        <v>1.982678484228558</v>
+        <v>2.538425772231165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.529219827542533</v>
+        <v>0.9897311952612995</v>
       </c>
       <c r="C25">
-        <v>0.4767939722018184</v>
+        <v>0.2427422693882022</v>
       </c>
       <c r="D25">
-        <v>0.0505305257738442</v>
+        <v>0.02755506235195782</v>
       </c>
       <c r="E25">
-        <v>0.03865098951320789</v>
+        <v>0.1080695106552074</v>
       </c>
       <c r="F25">
-        <v>0.6244944332096054</v>
+        <v>0.7426005586038329</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.29541870348298</v>
+        <v>0.6435231486489457</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1837070873745716</v>
+        <v>0.207903465731647</v>
       </c>
       <c r="M25">
-        <v>0.4412587663603063</v>
+        <v>0.2236667525888052</v>
       </c>
       <c r="N25">
-        <v>0.706274478348746</v>
+        <v>1.263703380562752</v>
       </c>
       <c r="O25">
-        <v>1.754169989527156</v>
+        <v>2.519213474105328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.868554723999523</v>
+        <v>3.653569155896037</v>
       </c>
       <c r="C2">
-        <v>0.2230895546694285</v>
+        <v>1.002244524435298</v>
       </c>
       <c r="D2">
-        <v>0.02541487974610135</v>
+        <v>0.03861069538323392</v>
       </c>
       <c r="E2">
-        <v>0.1093082662282425</v>
+        <v>1.44589092180945</v>
       </c>
       <c r="F2">
-        <v>0.7337237621415937</v>
+        <v>0.4574658647079701</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6503881080935159</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2035184872959732</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2039161632910051</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.278446630484339</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.510429043626402</v>
+        <v>1.194603449400716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7866008231924866</v>
+        <v>3.176843286896997</v>
       </c>
       <c r="C3">
-        <v>0.209625235377473</v>
+        <v>0.8803640611762944</v>
       </c>
       <c r="D3">
-        <v>0.02394862812381859</v>
+        <v>0.03419790003680134</v>
       </c>
       <c r="E3">
-        <v>0.1102144949870643</v>
+        <v>1.239190336923883</v>
       </c>
       <c r="F3">
-        <v>0.7287116675615835</v>
+        <v>0.4099553381823</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6558186271010094</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.200750244957085</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1906489805552667</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.289411023549796</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.507811326002326</v>
+        <v>1.086297697569137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7363698976328124</v>
+        <v>2.885098170475544</v>
       </c>
       <c r="C4">
-        <v>0.2012869645223674</v>
+        <v>0.8056924583000864</v>
       </c>
       <c r="D4">
-        <v>0.02304062198928847</v>
+        <v>0.03149800705845962</v>
       </c>
       <c r="E4">
-        <v>0.1108039141966772</v>
+        <v>1.114984026144967</v>
       </c>
       <c r="F4">
-        <v>0.7261286202203507</v>
+        <v>0.3825950706501473</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6595363778697489</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1991511633465564</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1825620133722836</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.296623658830342</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.507846823385421</v>
+        <v>1.025905654002116</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7159241101786051</v>
+        <v>2.766384131251812</v>
       </c>
       <c r="C5">
-        <v>0.197871324049089</v>
+        <v>0.7752885288976188</v>
       </c>
       <c r="D5">
-        <v>0.02266868007407652</v>
+        <v>0.03039953561571451</v>
       </c>
       <c r="E5">
-        <v>0.1110524143337099</v>
+        <v>1.064944229783151</v>
       </c>
       <c r="F5">
-        <v>0.7252002856644708</v>
+        <v>0.3718607182555473</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6611477443888951</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1985248895987368</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1792815925659283</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.299683767271169</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.508274158580491</v>
+        <v>1.002698521908428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7125305743480794</v>
+        <v>2.746680395334408</v>
       </c>
       <c r="C6">
-        <v>0.1973030934977089</v>
+        <v>0.7702410766613355</v>
       </c>
       <c r="D6">
-        <v>0.0226068038938152</v>
+        <v>0.03021722369252444</v>
       </c>
       <c r="E6">
-        <v>0.1110941796437102</v>
+        <v>1.056666997811192</v>
       </c>
       <c r="F6">
-        <v>0.7250536412817326</v>
+        <v>0.3701022390443995</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6614211284807361</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1984224310905489</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1787377985183909</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.300199200698486</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.508370047095468</v>
+        <v>0.9989260400546698</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7360940607944144</v>
+        <v>2.883496531570131</v>
       </c>
       <c r="C7">
-        <v>0.2012409715687511</v>
+        <v>0.8052823374376317</v>
       </c>
       <c r="D7">
-        <v>0.02303561360680817</v>
+        <v>0.03148318638439918</v>
       </c>
       <c r="E7">
-        <v>0.1108072319065438</v>
+        <v>1.114306975358431</v>
       </c>
       <c r="F7">
-        <v>0.7261155972353777</v>
+        <v>0.3824486735509538</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6595577192648285</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1991426144169424</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1825177111122684</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.296664438882367</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.507850915182161</v>
+        <v>1.025587161822898</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8402792903086151</v>
+        <v>3.4889502763628</v>
       </c>
       <c r="C8">
-        <v>0.2184619098921132</v>
+        <v>0.9601762468160757</v>
       </c>
       <c r="D8">
-        <v>0.02491093020738333</v>
+        <v>0.0370867575780025</v>
       </c>
       <c r="E8">
-        <v>0.1096138933733757</v>
+        <v>1.373991404029766</v>
       </c>
       <c r="F8">
-        <v>0.7318929501761104</v>
+        <v>0.4406830789456819</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6521809458837176</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2025431465326761</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1993294885757422</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.282127486823981</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.509185352070745</v>
+        <v>1.155908789986228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.04524546286973</v>
+        <v>4.687372499497542</v>
       </c>
       <c r="C9">
-        <v>0.2516623280749002</v>
+        <v>1.266022097150994</v>
       </c>
       <c r="D9">
-        <v>0.02852644670926452</v>
+        <v>0.04818550004039679</v>
       </c>
       <c r="E9">
-        <v>0.1075350074939618</v>
+        <v>1.910101905316466</v>
       </c>
       <c r="F9">
-        <v>0.7471488321144761</v>
+        <v>0.5712390427095642</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6407597876439617</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2100079451870585</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2327589209310261</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.257428932265888</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.524851093627774</v>
+        <v>1.466485400245119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.196186840197811</v>
+        <v>5.580062994807008</v>
       </c>
       <c r="C10">
-        <v>0.2757021534029889</v>
+        <v>1.493274756660185</v>
       </c>
       <c r="D10">
-        <v>0.03114427024885202</v>
+        <v>0.05646241210065028</v>
       </c>
       <c r="E10">
-        <v>0.1061661635196298</v>
+        <v>2.328942523170113</v>
       </c>
       <c r="F10">
-        <v>0.7607586634862429</v>
+        <v>0.6801860287837656</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6342287566908382</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2159758550657216</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2575932380129018</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.241599453196393</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.544341185788653</v>
+        <v>1.738300127749142</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.264921059430606</v>
+        <v>5.99020270617774</v>
       </c>
       <c r="C11">
-        <v>0.2865609784079766</v>
+        <v>1.597536429604133</v>
       </c>
       <c r="D11">
-        <v>0.03232668827989471</v>
+        <v>0.06026921519906381</v>
       </c>
       <c r="E11">
-        <v>0.1055777004257199</v>
+        <v>2.527182316141563</v>
       </c>
       <c r="F11">
-        <v>0.7674733401018159</v>
+        <v>0.7333506656163138</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6316624086232991</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2187954406617934</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2689489737203914</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.234900224204125</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.554946461127571</v>
+        <v>1.873993580230604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.290957879753762</v>
+        <v>6.146223832119233</v>
       </c>
       <c r="C12">
-        <v>0.2906617261323561</v>
+        <v>1.63717529550371</v>
       </c>
       <c r="D12">
-        <v>0.03277320792186345</v>
+        <v>0.06171817412964486</v>
       </c>
       <c r="E12">
-        <v>0.105359775680931</v>
+        <v>2.603584381246691</v>
       </c>
       <c r="F12">
-        <v>0.7700913820657007</v>
+        <v>0.7540744535712633</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6307488579327938</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2198781590972061</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2732573227625466</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.232435478975681</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.559212844790693</v>
+        <v>1.927353549975606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.285350022181035</v>
+        <v>6.112588108583907</v>
       </c>
       <c r="C13">
-        <v>0.289779060101381</v>
+        <v>1.628630841177255</v>
       </c>
       <c r="D13">
-        <v>0.03267709727199986</v>
+        <v>0.06140576057514124</v>
       </c>
       <c r="E13">
-        <v>0.10540649128765</v>
+        <v>2.587066586312318</v>
       </c>
       <c r="F13">
-        <v>0.7695241881704931</v>
+        <v>0.7495836463256325</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6309430145696737</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2196443100375234</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2723290826513036</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.232963099458267</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.558282861389472</v>
+        <v>1.915769440902721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.267062958902045</v>
+        <v>6.003023639679157</v>
       </c>
       <c r="C14">
-        <v>0.2868985759561724</v>
+        <v>1.600794205042689</v>
       </c>
       <c r="D14">
-        <v>0.03236344862632023</v>
+        <v>0.06038826459217717</v>
       </c>
       <c r="E14">
-        <v>0.1055596732035387</v>
+        <v>2.53343983225723</v>
       </c>
       <c r="F14">
-        <v>0.7676872177237897</v>
+        <v>0.7350433185091987</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.631586081983059</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2188842162342439</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.269303261604847</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.234696003169653</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.555292439001732</v>
+        <v>1.878342433681809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.25586269024285</v>
+        <v>5.936008769857779</v>
       </c>
       <c r="C15">
-        <v>0.2851327253684417</v>
+        <v>1.583764899841924</v>
       </c>
       <c r="D15">
-        <v>0.03217116809584297</v>
+        <v>0.05976602918984497</v>
       </c>
       <c r="E15">
-        <v>0.105654141164234</v>
+        <v>2.500772756271289</v>
       </c>
       <c r="F15">
-        <v>0.7665718335318132</v>
+        <v>0.7262163023034418</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6319875701771025</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2184205888016493</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2674509170577579</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.235766846310739</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.55349333706323</v>
+        <v>1.855682373255036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.19169618775328</v>
+        <v>5.553351474471583</v>
       </c>
       <c r="C16">
-        <v>0.2749909386322997</v>
+        <v>1.486481283388798</v>
       </c>
       <c r="D16">
-        <v>0.03106682464807875</v>
+        <v>0.05621458255117062</v>
       </c>
       <c r="E16">
-        <v>0.1062053090172772</v>
+        <v>2.316160600413454</v>
       </c>
       <c r="F16">
-        <v>0.7603303829543648</v>
+        <v>0.6767901812289097</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6344046231386997</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2157936912231833</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2568522710006107</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.242047355693195</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.543683128564908</v>
+        <v>1.72969477305071</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.152349082233172</v>
+        <v>5.319727173906585</v>
       </c>
       <c r="C17">
-        <v>0.2687494286349761</v>
+        <v>1.427047512301669</v>
       </c>
       <c r="D17">
-        <v>0.03038716738219449</v>
+        <v>0.05404748730052233</v>
       </c>
       <c r="E17">
-        <v>0.1065521936406091</v>
+        <v>2.205030298274977</v>
       </c>
       <c r="F17">
-        <v>0.7566355793734658</v>
+        <v>0.6474413772912015</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6359911055545631</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2142089612493265</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2503651587298208</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.246028711977139</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.538110539547318</v>
+        <v>1.655654577717996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.129724363880428</v>
+        <v>5.185725402171613</v>
       </c>
       <c r="C18">
-        <v>0.2651522391398373</v>
+        <v>1.392943901908097</v>
       </c>
       <c r="D18">
-        <v>0.02999545313528529</v>
+        <v>0.05280484970182897</v>
       </c>
       <c r="E18">
-        <v>0.1067549350036736</v>
+        <v>2.141821199478073</v>
       </c>
       <c r="F18">
-        <v>0.7545596964181698</v>
+        <v>0.630895093239161</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.636941691065541</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2133073300191057</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2466394615731815</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.248365905097849</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.535069010940532</v>
+        <v>1.614185979594282</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.122065216821397</v>
+        <v>5.14041507690564</v>
       </c>
       <c r="C19">
-        <v>0.2639330549127124</v>
+        <v>1.381410077713554</v>
       </c>
       <c r="D19">
-        <v>0.02986268984005847</v>
+        <v>0.05238472970519581</v>
       </c>
       <c r="E19">
-        <v>0.1068241334857625</v>
+        <v>2.120535350376599</v>
       </c>
       <c r="F19">
-        <v>0.7538652984473231</v>
+        <v>0.625348142486331</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6372700812599632</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2130037491011478</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2453789593374296</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.249165350095794</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.534067303822383</v>
+        <v>1.600330373230292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.156536966175679</v>
+        <v>5.34455742478508</v>
       </c>
       <c r="C20">
-        <v>0.2694145984389138</v>
+        <v>1.433365735797963</v>
       </c>
       <c r="D20">
-        <v>0.03045960032996931</v>
+        <v>0.05427777345895635</v>
       </c>
       <c r="E20">
-        <v>0.1065149337281874</v>
+        <v>2.216785296334024</v>
       </c>
       <c r="F20">
-        <v>0.7570237977754317</v>
+        <v>0.6505304985081892</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6358182797765402</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2143766380621912</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2510551534617562</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.245600002728928</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.538686808921028</v>
+        <v>1.663418966590456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.272434088987893</v>
+        <v>6.035185013054445</v>
       </c>
       <c r="C21">
-        <v>0.287744950823452</v>
+        <v>1.608965972733415</v>
       </c>
       <c r="D21">
-        <v>0.03245560857011043</v>
+        <v>0.06068691444040297</v>
       </c>
       <c r="E21">
-        <v>0.1055145466825134</v>
+        <v>2.549153166963947</v>
       </c>
       <c r="F21">
-        <v>0.7682247352931881</v>
+        <v>0.7392974844044744</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6313956154277349</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2191070675293787</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2701917984746984</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.234185050618017</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.556164000409723</v>
+        <v>1.889279935424554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.348229389395613</v>
+        <v>6.490760030649597</v>
       </c>
       <c r="C22">
-        <v>0.2996592177675836</v>
+        <v>1.724664246468421</v>
       </c>
       <c r="D22">
-        <v>0.03375289826872319</v>
+        <v>0.0649196434990742</v>
       </c>
       <c r="E22">
-        <v>0.1048893712228889</v>
+        <v>2.774275462990616</v>
       </c>
       <c r="F22">
-        <v>0.7759843601248235</v>
+        <v>0.8008001998274494</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6288448261447215</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2222860947501886</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2827462649922197</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.22714500381219</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.569045997061778</v>
+        <v>2.048545632740371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.307771925503005</v>
+        <v>6.247179511589479</v>
       </c>
       <c r="C23">
-        <v>0.2933064180554368</v>
+        <v>1.662817484722552</v>
       </c>
       <c r="D23">
-        <v>0.03306117807824194</v>
+        <v>0.06265600365713198</v>
       </c>
       <c r="E23">
-        <v>0.1052204219239066</v>
+        <v>2.653316705848027</v>
       </c>
       <c r="F23">
-        <v>0.7718026987780462</v>
+        <v>0.767629265527745</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6301751230646033</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2205814094638896</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2760414342386284</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.230863963343076</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.562036973912711</v>
+        <v>1.962387568851085</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.154643634772867</v>
+        <v>5.333330706156858</v>
       </c>
       <c r="C24">
-        <v>0.2691139027641043</v>
+        <v>1.430509064684031</v>
       </c>
       <c r="D24">
-        <v>0.03042685641456444</v>
+        <v>0.05417365105487448</v>
       </c>
       <c r="E24">
-        <v>0.1065317686151008</v>
+        <v>2.211468756447317</v>
       </c>
       <c r="F24">
-        <v>0.7568481337617641</v>
+        <v>0.6491328945230634</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6358962944046027</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2143008019317563</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2507431948956977</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.245793671853825</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.538425772231165</v>
+        <v>1.659905284108874</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9897311952612995</v>
+        <v>4.361450325056296</v>
       </c>
       <c r="C25">
-        <v>0.2427422693882022</v>
+        <v>1.182935475828856</v>
       </c>
       <c r="D25">
-        <v>0.02755506235195782</v>
+        <v>0.04516592618356441</v>
       </c>
       <c r="E25">
-        <v>0.1080695106552074</v>
+        <v>1.761375679677428</v>
       </c>
       <c r="F25">
-        <v>0.7426005586038329</v>
+        <v>0.5338722426101228</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6435231486489457</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.207903465731647</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2236667525888052</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.263703380562752</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.519213474105328</v>
+        <v>1.375597415449619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.653569155896037</v>
+        <v>3.473321297368443</v>
       </c>
       <c r="C2">
-        <v>1.002244524435298</v>
+        <v>1.027038466385278</v>
       </c>
       <c r="D2">
-        <v>0.03861069538323392</v>
+        <v>0.04746563878543242</v>
       </c>
       <c r="E2">
-        <v>1.44589092180945</v>
+        <v>1.357485398655896</v>
       </c>
       <c r="F2">
-        <v>0.4574658647079701</v>
+        <v>0.5025806726517104</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01155765954546265</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004188960627741434</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.194603449400716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.409506098574781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.176843286896997</v>
+        <v>3.025989452917543</v>
       </c>
       <c r="C3">
-        <v>0.8803640611762944</v>
+        <v>0.9066745903175217</v>
       </c>
       <c r="D3">
-        <v>0.03419790003680134</v>
+        <v>0.0426034974438565</v>
       </c>
       <c r="E3">
-        <v>1.239190336923883</v>
+        <v>1.182098661248517</v>
       </c>
       <c r="F3">
-        <v>0.4099553381823</v>
+        <v>0.4617029716188839</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008202360679210235</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002435183028116406</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.086297697569137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.320823533477864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.885098170475544</v>
+        <v>2.75113556242826</v>
       </c>
       <c r="C4">
-        <v>0.8056924583000864</v>
+        <v>0.8333404639695914</v>
       </c>
       <c r="D4">
-        <v>0.03149800705845962</v>
+        <v>0.03962876718298247</v>
       </c>
       <c r="E4">
-        <v>1.114984026144967</v>
+        <v>1.074759720971684</v>
       </c>
       <c r="F4">
-        <v>0.3825950706501473</v>
+        <v>0.4372545917619561</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.006371091650124394</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001625717039543506</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.025905654002116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.268368109159809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.766384131251812</v>
+        <v>2.63902800674191</v>
       </c>
       <c r="C5">
-        <v>0.7752885288976188</v>
+        <v>0.8051653970680377</v>
       </c>
       <c r="D5">
-        <v>0.03039953561571451</v>
+        <v>0.03849908900418342</v>
       </c>
       <c r="E5">
-        <v>1.064944229783151</v>
+        <v>1.031067517943328</v>
       </c>
       <c r="F5">
-        <v>0.3718607182555473</v>
+        <v>0.4266486045318629</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005676257758423175</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001416686289084979</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.002698521908428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.244799232327438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.746680395334408</v>
+        <v>2.620371528146563</v>
       </c>
       <c r="C6">
-        <v>0.7702410766613355</v>
+        <v>0.8024315558468516</v>
       </c>
       <c r="D6">
-        <v>0.03021722369252444</v>
+        <v>0.03841008806588064</v>
       </c>
       <c r="E6">
-        <v>1.056666997811192</v>
+        <v>1.02379653887381</v>
       </c>
       <c r="F6">
-        <v>0.3701022390443995</v>
+        <v>0.4239283188626146</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005562248232508615</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001464892024789499</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9989260400546698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.237674402612328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.883496531570131</v>
+        <v>2.74952406004121</v>
       </c>
       <c r="C7">
-        <v>0.8052823374376317</v>
+        <v>0.8382659236967527</v>
       </c>
       <c r="D7">
-        <v>0.03148318638439918</v>
+        <v>0.03988322695139601</v>
       </c>
       <c r="E7">
-        <v>1.114306975358431</v>
+        <v>1.074117450153068</v>
       </c>
       <c r="F7">
-        <v>0.3824486735509538</v>
+        <v>0.4344650404707977</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.006356633002021828</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001823568820628729</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.025587161822898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.259198446895141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.4889502763628</v>
+        <v>3.318965971132002</v>
       </c>
       <c r="C8">
-        <v>0.9601762468160757</v>
+        <v>0.9925124729663253</v>
       </c>
       <c r="D8">
-        <v>0.0370867575780025</v>
+        <v>0.04614815818064955</v>
       </c>
       <c r="E8">
-        <v>1.373991404029766</v>
+        <v>1.296854148925604</v>
       </c>
       <c r="F8">
-        <v>0.4406830789456819</v>
+        <v>0.4848336532956665</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01034268704065072</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003760544424331158</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.155908789986228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.366767437574254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.687372499497542</v>
+        <v>4.435602471144477</v>
       </c>
       <c r="C9">
-        <v>1.266022097150994</v>
+        <v>1.290531435654884</v>
       </c>
       <c r="D9">
-        <v>0.04818550004039679</v>
+        <v>0.05804490263918893</v>
       </c>
       <c r="E9">
-        <v>1.910101905316466</v>
+        <v>1.737609312871797</v>
       </c>
       <c r="F9">
-        <v>0.5712390427095642</v>
+        <v>0.5942348880306199</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02021120401831755</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00963857218754427</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.466485400245119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.6115513099856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.580062994807008</v>
+        <v>5.256708081939905</v>
       </c>
       <c r="C10">
-        <v>1.493274756660185</v>
+        <v>1.515316710739057</v>
       </c>
       <c r="D10">
-        <v>0.05646241210065028</v>
+        <v>0.06850537725882333</v>
       </c>
       <c r="E10">
-        <v>2.328942523170113</v>
+        <v>1.962773071531615</v>
       </c>
       <c r="F10">
-        <v>0.6801860287837656</v>
+        <v>0.6648536962738518</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02827314176957785</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01570473395739747</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.738300127749142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.758094049501096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.99020270617774</v>
+        <v>5.621723590468036</v>
       </c>
       <c r="C11">
-        <v>1.597536429604133</v>
+        <v>1.619316488079619</v>
       </c>
       <c r="D11">
-        <v>0.06026921519906381</v>
+        <v>0.08791808590716244</v>
       </c>
       <c r="E11">
-        <v>2.527182316141563</v>
+        <v>1.273338595727523</v>
       </c>
       <c r="F11">
-        <v>0.7333506656163138</v>
+        <v>0.5840019648272801</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0436581359854209</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01784748950442339</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.873993580230604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.458508683066697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.146223832119233</v>
+        <v>5.756915616603408</v>
       </c>
       <c r="C12">
-        <v>1.63717529550371</v>
+        <v>1.651205380261786</v>
       </c>
       <c r="D12">
-        <v>0.06171817412964486</v>
+        <v>0.1031250141704589</v>
       </c>
       <c r="E12">
-        <v>2.603584381246691</v>
+        <v>0.7762795755667042</v>
       </c>
       <c r="F12">
-        <v>0.7540744535712633</v>
+        <v>0.5090995615705083</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07943051563349712</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01806149893065268</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.927353549975606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.209200150188622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.112588108583907</v>
+        <v>5.721574732849376</v>
       </c>
       <c r="C13">
-        <v>1.628630841177255</v>
+        <v>1.637625448490837</v>
       </c>
       <c r="D13">
-        <v>0.06140576057514124</v>
+        <v>0.1162027654279143</v>
       </c>
       <c r="E13">
-        <v>2.587066586312318</v>
+        <v>0.3988614078432349</v>
       </c>
       <c r="F13">
-        <v>0.7495836463256325</v>
+        <v>0.430380206184779</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1322256592901709</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01705535373271427</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.915769440902721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9703656183522185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.003023639679157</v>
+        <v>5.619715193664376</v>
       </c>
       <c r="C14">
-        <v>1.600794205042689</v>
+        <v>1.60936285668663</v>
       </c>
       <c r="D14">
-        <v>0.06038826459217717</v>
+        <v>0.124570431748225</v>
       </c>
       <c r="E14">
-        <v>2.53343983225723</v>
+        <v>0.2074326083771822</v>
       </c>
       <c r="F14">
-        <v>0.7350433185091987</v>
+        <v>0.3740200338718793</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1796051948735169</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01592213451959257</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.878342433681809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8102644711294573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.936008769857779</v>
+        <v>5.558434118736045</v>
       </c>
       <c r="C15">
-        <v>1.583764899841924</v>
+        <v>1.595017950854015</v>
       </c>
       <c r="D15">
-        <v>0.05976602918984497</v>
+        <v>0.1260904655919148</v>
       </c>
       <c r="E15">
-        <v>2.500772756271289</v>
+        <v>0.1697532213726909</v>
       </c>
       <c r="F15">
-        <v>0.7262163023034418</v>
+        <v>0.3582976480543252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1914455637791264</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01547904891747898</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.855682373255036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7688839038803792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.553351474471583</v>
+        <v>5.211112811986141</v>
       </c>
       <c r="C16">
-        <v>1.486481283388798</v>
+        <v>1.503985585164514</v>
       </c>
       <c r="D16">
-        <v>0.05621458255117062</v>
+        <v>0.1185835721831836</v>
       </c>
       <c r="E16">
-        <v>2.316160600413454</v>
+        <v>0.1651835803463868</v>
       </c>
       <c r="F16">
-        <v>0.6767901812289097</v>
+        <v>0.3437177782636311</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1761920200204514</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01309784018900029</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.72969477305071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7532573595373577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.319727173906585</v>
+        <v>4.999469065003382</v>
       </c>
       <c r="C17">
-        <v>1.427047512301669</v>
+        <v>1.449566146357029</v>
       </c>
       <c r="D17">
-        <v>0.05404748730052233</v>
+        <v>0.1083767723298337</v>
       </c>
       <c r="E17">
-        <v>2.205030298274977</v>
+        <v>0.2494626366359753</v>
       </c>
       <c r="F17">
-        <v>0.6474413772912015</v>
+        <v>0.3618516828446161</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1374478192042687</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01192002461096919</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655654577717996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8237318663030635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.185725402171613</v>
+        <v>4.880056660330183</v>
       </c>
       <c r="C18">
-        <v>1.392943901908097</v>
+        <v>1.415658091795876</v>
       </c>
       <c r="D18">
-        <v>0.05280484970182897</v>
+        <v>0.09497550145089662</v>
       </c>
       <c r="E18">
-        <v>2.141821199478073</v>
+        <v>0.4831482273805676</v>
       </c>
       <c r="F18">
-        <v>0.630895093239161</v>
+        <v>0.414059753865331</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08531323150300807</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01135163912682557</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.614185979594282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9919834191522341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.14041507690564</v>
+        <v>4.843389989079867</v>
       </c>
       <c r="C19">
-        <v>1.381410077713554</v>
+        <v>1.411809549907389</v>
       </c>
       <c r="D19">
-        <v>0.05238472970519581</v>
+        <v>0.08153301090439413</v>
       </c>
       <c r="E19">
-        <v>2.120535350376599</v>
+        <v>0.9182382728010765</v>
       </c>
       <c r="F19">
-        <v>0.625348142486331</v>
+        <v>0.4898916898786254</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04284433691881162</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01183622124126327</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.600330373230292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.232335495196253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.34455742478508</v>
+        <v>5.040510401192705</v>
       </c>
       <c r="C20">
-        <v>1.433365735797963</v>
+        <v>1.473197318833968</v>
       </c>
       <c r="D20">
-        <v>0.05427777345895635</v>
+        <v>0.06669841540026766</v>
       </c>
       <c r="E20">
-        <v>2.216785296334024</v>
+        <v>1.899002168065294</v>
       </c>
       <c r="F20">
-        <v>0.6505304985081892</v>
+        <v>0.6372030696024922</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02597367173380327</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01458617560381548</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663418966590456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.689473743140525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.035185013054445</v>
+        <v>5.673470024573305</v>
       </c>
       <c r="C21">
-        <v>1.608965972733415</v>
+        <v>1.645288297854052</v>
       </c>
       <c r="D21">
-        <v>0.06068691444040297</v>
+        <v>0.07226682496410319</v>
       </c>
       <c r="E21">
-        <v>2.549153166963947</v>
+        <v>2.232131371173438</v>
       </c>
       <c r="F21">
-        <v>0.7392974844044744</v>
+        <v>0.7151516839723513</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03394106454436541</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02003765971659988</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.889279935424554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.879691950255136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.490760030649597</v>
+        <v>6.087802046524757</v>
       </c>
       <c r="C22">
-        <v>1.724664246468421</v>
+        <v>1.75110429291118</v>
       </c>
       <c r="D22">
-        <v>0.0649196434990742</v>
+        <v>0.07632423049080472</v>
       </c>
       <c r="E22">
-        <v>2.774275462990616</v>
+        <v>2.399042766224454</v>
       </c>
       <c r="F22">
-        <v>0.8008001998274494</v>
+        <v>0.7641198733797552</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03916662059644382</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02373310118088412</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.048545632740371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.997339558723922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.247179511589479</v>
+        <v>5.866700694770543</v>
       </c>
       <c r="C23">
-        <v>1.662817484722552</v>
+        <v>1.687950480952622</v>
       </c>
       <c r="D23">
-        <v>0.06265600365713198</v>
+        <v>0.07382043616949829</v>
       </c>
       <c r="E23">
-        <v>2.653316705848027</v>
+        <v>2.309899965022154</v>
       </c>
       <c r="F23">
-        <v>0.767629265527745</v>
+        <v>0.7409961635137279</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03634905217580897</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02148344527393053</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.962387568851085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.944593446737883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.333330706156858</v>
+        <v>5.031235608746215</v>
       </c>
       <c r="C24">
-        <v>1.430509064684031</v>
+        <v>1.461156653618673</v>
       </c>
       <c r="D24">
-        <v>0.05417365105487448</v>
+        <v>0.06490913351873928</v>
       </c>
       <c r="E24">
-        <v>2.211468756447317</v>
+        <v>1.974791371224228</v>
       </c>
       <c r="F24">
-        <v>0.6491328945230634</v>
+        <v>0.6510398744255781</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02646713233113207</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01423350754240449</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659905284108874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.736204745891285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.361450325056296</v>
+        <v>4.133146981528341</v>
       </c>
       <c r="C25">
-        <v>1.182935475828856</v>
+        <v>1.219123749376706</v>
       </c>
       <c r="D25">
-        <v>0.04516592618356441</v>
+        <v>0.05531613510211741</v>
       </c>
       <c r="E25">
-        <v>1.761375679677428</v>
+        <v>1.617694854800973</v>
       </c>
       <c r="F25">
-        <v>0.5338722426101228</v>
+        <v>0.5591086164494499</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01727780945380286</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00809390645974073</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.375597415449619</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.527106045572907</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.473321297368443</v>
+        <v>0.8986013782645443</v>
       </c>
       <c r="C2">
-        <v>1.027038466385278</v>
+        <v>0.1137161507113973</v>
       </c>
       <c r="D2">
-        <v>0.04746563878543242</v>
+        <v>0.06935580605703251</v>
       </c>
       <c r="E2">
-        <v>1.357485398655896</v>
+        <v>0.04531677238190035</v>
       </c>
       <c r="F2">
-        <v>0.5025806726517104</v>
+        <v>0.8946694762982901</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01155765954546265</v>
+        <v>0.02029398899209922</v>
       </c>
       <c r="I2">
-        <v>0.004188960627741434</v>
+        <v>0.0220998344844916</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5694339774397754</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0628080041364214</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8284440012547805</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1464278166071153</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1935880517744373</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.409506098574781</v>
+        <v>2.378300141820972</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.025989452917543</v>
+        <v>0.7828047941949876</v>
       </c>
       <c r="C3">
-        <v>0.9066745903175217</v>
+        <v>0.1048499391208608</v>
       </c>
       <c r="D3">
-        <v>0.0426034974438565</v>
+        <v>0.06216194047104295</v>
       </c>
       <c r="E3">
-        <v>1.182098661248517</v>
+        <v>0.04309669138657313</v>
       </c>
       <c r="F3">
-        <v>0.4617029716188839</v>
+        <v>0.8789913092626307</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.008202360679210235</v>
+        <v>0.02387119435170126</v>
       </c>
       <c r="I3">
-        <v>0.002435183028116406</v>
+        <v>0.02576277222621037</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.570867806379205</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06097222884366627</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7228340281241685</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1319477709677344</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.16948905970618</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.320823533477864</v>
+        <v>2.361145641219423</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.75113556242826</v>
+        <v>0.7115142609379745</v>
       </c>
       <c r="C4">
-        <v>0.8333404639695914</v>
+        <v>0.09945033952267579</v>
       </c>
       <c r="D4">
-        <v>0.03962876718298247</v>
+        <v>0.05777129444640394</v>
       </c>
       <c r="E4">
-        <v>1.074759720971684</v>
+        <v>0.04171966791343173</v>
       </c>
       <c r="F4">
-        <v>0.4372545917619561</v>
+        <v>0.8698484127501089</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006371091650124394</v>
+        <v>0.02630118267850023</v>
       </c>
       <c r="I4">
-        <v>0.001625717039543506</v>
+        <v>0.02827671140513921</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5719783222060535</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05980564795922572</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6580041024218133</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1231132686387184</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1546953029090581</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.268368109159809</v>
+        <v>2.352031049204712</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.63902800674191</v>
+        <v>0.6821420944286842</v>
       </c>
       <c r="C5">
-        <v>0.8051653970680377</v>
+        <v>0.09744057829134078</v>
       </c>
       <c r="D5">
-        <v>0.03849908900418342</v>
+        <v>0.05602849500735374</v>
       </c>
       <c r="E5">
-        <v>1.031067517943328</v>
+        <v>0.04113679173140383</v>
       </c>
       <c r="F5">
-        <v>0.4266486045318629</v>
+        <v>0.8655872288141992</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.005676257758423175</v>
+        <v>0.02735514097296321</v>
       </c>
       <c r="I5">
-        <v>0.001416686289084979</v>
+        <v>0.02946335489528229</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.572002378024159</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05929318030311848</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6318597454902601</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.119649199998733</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.148687138100378</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.244799232327438</v>
+        <v>2.346753988816985</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.620371528146563</v>
+        <v>0.6769313764551725</v>
       </c>
       <c r="C6">
-        <v>0.8024315558468516</v>
+        <v>0.09733037585478854</v>
       </c>
       <c r="D6">
-        <v>0.03841008806588064</v>
+        <v>0.05578873463193901</v>
       </c>
       <c r="E6">
-        <v>1.02379653887381</v>
+        <v>0.04101766614965641</v>
       </c>
       <c r="F6">
-        <v>0.4239283188626146</v>
+        <v>0.8640879361643243</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.005562248232508615</v>
+        <v>0.02754169143698182</v>
       </c>
       <c r="I6">
-        <v>0.001464892024789499</v>
+        <v>0.02979048637611026</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5714173604370529</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05917463741687534</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6278559222542839</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1192255730377454</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1477146614566465</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.237674402612328</v>
+        <v>2.343565374940894</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74952406004121</v>
+        <v>0.7102126087165743</v>
       </c>
       <c r="C7">
-        <v>0.8382659236967527</v>
+        <v>0.1000337605267632</v>
       </c>
       <c r="D7">
-        <v>0.03988322695139601</v>
+        <v>0.05788247553596904</v>
       </c>
       <c r="E7">
-        <v>1.074117450153068</v>
+        <v>0.0416515480771249</v>
       </c>
       <c r="F7">
-        <v>0.4344650404707977</v>
+        <v>0.8676127555276096</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006356633002021828</v>
+        <v>0.02633642971904682</v>
       </c>
       <c r="I7">
-        <v>0.001823568820628729</v>
+        <v>0.02861955084639245</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5703643880255278</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05970960267460423</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6585759498744466</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1234790431075012</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1546830904585761</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.259198446895141</v>
+        <v>2.345600153730174</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.318965971132002</v>
+        <v>0.8574993487309541</v>
       </c>
       <c r="C8">
-        <v>0.9925124729663253</v>
+        <v>0.1114675317500939</v>
       </c>
       <c r="D8">
-        <v>0.04614815818064955</v>
+        <v>0.06704868235425465</v>
       </c>
       <c r="E8">
-        <v>1.296854148925604</v>
+        <v>0.04447488365810415</v>
       </c>
       <c r="F8">
-        <v>0.4848336532956665</v>
+        <v>0.8862989910999204</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01034268704065072</v>
+        <v>0.0215017515284881</v>
       </c>
       <c r="I8">
-        <v>0.003760544424331158</v>
+        <v>0.02369991733665078</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5677658100499841</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06206751757359097</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7932565833888248</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1419720570037768</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1853682988634411</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.366767437574254</v>
+        <v>2.36374103938455</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.435602471144477</v>
+        <v>1.146612454037268</v>
       </c>
       <c r="C9">
-        <v>1.290531435654884</v>
+        <v>0.1332153624975376</v>
       </c>
       <c r="D9">
-        <v>0.05804490263918893</v>
+        <v>0.0850120852994678</v>
       </c>
       <c r="E9">
-        <v>1.737609312871797</v>
+        <v>0.05001538110765225</v>
       </c>
       <c r="F9">
-        <v>0.5942348880306199</v>
+        <v>0.9308109433123519</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02021120401831755</v>
+        <v>0.01392296244550376</v>
       </c>
       <c r="I9">
-        <v>0.00963857218754427</v>
+        <v>0.01573874623646088</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5674032462055401</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06654479970169191</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.056066076547296</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1779949724324936</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2454931733415684</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.6115513099856</v>
+        <v>2.422310055298055</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.256708081939905</v>
+        <v>1.3574709826662</v>
       </c>
       <c r="C10">
-        <v>1.515316710739057</v>
+        <v>0.1511025484034292</v>
       </c>
       <c r="D10">
-        <v>0.06850537725882333</v>
+        <v>0.09714984709815155</v>
       </c>
       <c r="E10">
-        <v>1.962773071531615</v>
+        <v>0.05249294667529547</v>
       </c>
       <c r="F10">
-        <v>0.6648536962738518</v>
+        <v>0.9533905350530105</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.02827314176957785</v>
+        <v>0.01004600115015686</v>
       </c>
       <c r="I10">
-        <v>0.01570473395739747</v>
+        <v>0.01157715563318007</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5612232921426958</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06866761979642089</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.253109352881182</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1984830670646431</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.2865561152452756</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.758094049501096</v>
+        <v>2.441202129717738</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.621723590468036</v>
+        <v>1.447340848357697</v>
       </c>
       <c r="C11">
-        <v>1.619316488079619</v>
+        <v>0.1719174649952464</v>
       </c>
       <c r="D11">
-        <v>0.08791808590716244</v>
+        <v>0.09174472403072542</v>
       </c>
       <c r="E11">
-        <v>1.273338595727523</v>
+        <v>0.04234208745891621</v>
       </c>
       <c r="F11">
-        <v>0.5840019648272801</v>
+        <v>0.8621703188220664</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0436581359854209</v>
+        <v>0.02847406191167323</v>
       </c>
       <c r="I11">
-        <v>0.01784748950442339</v>
+        <v>0.0110871476920229</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5039526791694939</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06616373538944043</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.370370199930733</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1552787487592084</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2771421439021822</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.458508683066697</v>
+        <v>2.199974680641816</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.756915616603408</v>
+        <v>1.480095167890681</v>
       </c>
       <c r="C12">
-        <v>1.651205380261786</v>
+        <v>0.1858743718226066</v>
       </c>
       <c r="D12">
-        <v>0.1031250141704589</v>
+        <v>0.08453056951530868</v>
       </c>
       <c r="E12">
-        <v>0.7762795755667042</v>
+        <v>0.03592421569525861</v>
       </c>
       <c r="F12">
-        <v>0.5090995615705083</v>
+        <v>0.7871958155880421</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07943051563349712</v>
+        <v>0.06738742438952272</v>
       </c>
       <c r="I12">
-        <v>0.01806149893065268</v>
+        <v>0.01090111864080789</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4625842580066681</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07030426937367729</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.427331060457789</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1190612576981209</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2605224434146791</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.209200150188622</v>
+        <v>2.011568380617916</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.721574732849376</v>
+        <v>1.469017657725374</v>
       </c>
       <c r="C13">
-        <v>1.637625448490837</v>
+        <v>0.196172955392754</v>
       </c>
       <c r="D13">
-        <v>0.1162027654279143</v>
+        <v>0.07576368188694715</v>
       </c>
       <c r="E13">
-        <v>0.3988614078432349</v>
+        <v>0.03189256351494585</v>
       </c>
       <c r="F13">
-        <v>0.430380206184779</v>
+        <v>0.7168756937784693</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1322256592901709</v>
+        <v>0.1237506911676007</v>
       </c>
       <c r="I13">
-        <v>0.01705535373271427</v>
+        <v>0.01136405197026846</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4283834556033987</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0794537621502549</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.442076267263047</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08692785003182024</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2376263642889995</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9703656183522185</v>
+        <v>1.842407795499511</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.619715193664376</v>
+        <v>1.441130298226511</v>
       </c>
       <c r="C14">
-        <v>1.60936285668663</v>
+        <v>0.2020407336782029</v>
       </c>
       <c r="D14">
-        <v>0.124570431748225</v>
+        <v>0.06903943763086318</v>
       </c>
       <c r="E14">
-        <v>0.2074326083771822</v>
+        <v>0.03049256272744422</v>
       </c>
       <c r="F14">
-        <v>0.3740200338718793</v>
+        <v>0.6700625576120487</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1796051948735169</v>
+        <v>0.1736827539781416</v>
       </c>
       <c r="I14">
-        <v>0.01592213451959257</v>
+        <v>0.01209272500660408</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4078898514977496</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0888915619862658</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.433541807816397</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06724828375055125</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2189582223455311</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8102644711294573</v>
+        <v>1.733265954253739</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.558434118736045</v>
+        <v>1.424614389941979</v>
       </c>
       <c r="C15">
-        <v>1.595017950854015</v>
+        <v>0.2028627179521578</v>
       </c>
       <c r="D15">
-        <v>0.1260904655919148</v>
+        <v>0.06711398996275619</v>
       </c>
       <c r="E15">
-        <v>0.1697532213726909</v>
+        <v>0.03032036127188498</v>
       </c>
       <c r="F15">
-        <v>0.3582976480543252</v>
+        <v>0.6586614215483166</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1914455637791264</v>
+        <v>0.1864826428092243</v>
       </c>
       <c r="I15">
-        <v>0.01547904891747898</v>
+        <v>0.01256401432275567</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4036418516593727</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09141222466713472</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.42266159162341</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06276652978364439</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2131270776706735</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7688839038803792</v>
+        <v>1.707943468825803</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.211112811986141</v>
+        <v>1.335390310536638</v>
       </c>
       <c r="C16">
-        <v>1.503985585164514</v>
+        <v>0.1930386475988968</v>
       </c>
       <c r="D16">
-        <v>0.1185835721831836</v>
+        <v>0.06396738185860329</v>
       </c>
       <c r="E16">
-        <v>0.1651835803463868</v>
+        <v>0.03011784360710279</v>
       </c>
       <c r="F16">
-        <v>0.3437177782636311</v>
+        <v>0.662266914906219</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1761920200204514</v>
+        <v>0.1753826366824853</v>
       </c>
       <c r="I16">
-        <v>0.01309784018900029</v>
+        <v>0.01436233363924799</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.412148612755928</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08823706793211983</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.33433974578864</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06151519026305863</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2007737484842025</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7532573595373577</v>
+        <v>1.730186874358623</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.999469065003382</v>
+        <v>1.281888014701508</v>
       </c>
       <c r="C17">
-        <v>1.449566146357029</v>
+        <v>0.1823997094161598</v>
       </c>
       <c r="D17">
-        <v>0.1083767723298337</v>
+        <v>0.0650835034561581</v>
       </c>
       <c r="E17">
-        <v>0.2494626366359753</v>
+        <v>0.03046301065899809</v>
       </c>
       <c r="F17">
-        <v>0.3618516828446161</v>
+        <v>0.6895171472901183</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1374478192042687</v>
+        <v>0.138573124320402</v>
       </c>
       <c r="I17">
-        <v>0.01192002461096919</v>
+        <v>0.01540306169794814</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4292867067217898</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08028063403606467</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.271400754707059</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0704251766478734</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2011028459878546</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8237318663030635</v>
+        <v>1.804377275207386</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.880056660330183</v>
+        <v>1.253667004801798</v>
       </c>
       <c r="C18">
-        <v>1.415658091795876</v>
+        <v>0.1696389888582956</v>
       </c>
       <c r="D18">
-        <v>0.09497550145089662</v>
+        <v>0.06999956166940535</v>
       </c>
       <c r="E18">
-        <v>0.4831482273805676</v>
+        <v>0.03260919417223906</v>
       </c>
       <c r="F18">
-        <v>0.414059753865331</v>
+        <v>0.7435928921784978</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08531323150300807</v>
+        <v>0.08599539721348748</v>
       </c>
       <c r="I18">
-        <v>0.01135163912682557</v>
+        <v>0.01547040633252017</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4584386831805141</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07036563299178233</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.222536470050613</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09159521989852237</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2124876404689218</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9919834191522341</v>
+        <v>1.941010195800303</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.843389989079867</v>
+        <v>1.245935358532932</v>
       </c>
       <c r="C19">
-        <v>1.411809549907389</v>
+        <v>0.1583676798008753</v>
       </c>
       <c r="D19">
-        <v>0.08153301090439413</v>
+        <v>0.07805527393612266</v>
       </c>
       <c r="E19">
-        <v>0.9182382728010765</v>
+        <v>0.03791135189735595</v>
       </c>
       <c r="F19">
-        <v>0.4898916898786254</v>
+        <v>0.8155016529826113</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04284433691881162</v>
+        <v>0.04010628776404701</v>
       </c>
       <c r="I19">
-        <v>0.01183622124126327</v>
+        <v>0.01532343310809292</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4957447360950979</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06429797368291368</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.190836779989723</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1257947237248018</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2324508460903125</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.232335495196253</v>
+        <v>2.117745336973002</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.040510401192705</v>
+        <v>1.299184617073877</v>
       </c>
       <c r="C20">
-        <v>1.473197318833968</v>
+        <v>0.1484465678715736</v>
       </c>
       <c r="D20">
-        <v>0.06669841540026766</v>
+        <v>0.09432298267105921</v>
       </c>
       <c r="E20">
-        <v>1.899002168065294</v>
+        <v>0.05160030176606867</v>
       </c>
       <c r="F20">
-        <v>0.6372030696024922</v>
+        <v>0.9401800209145321</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02597367173380327</v>
+        <v>0.01100569320884182</v>
       </c>
       <c r="I20">
-        <v>0.01458617560381548</v>
+        <v>0.01351535001759263</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5576756605076447</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06782900777399448</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.20439201331132</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1941035949662933</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2758450673754353</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.689473743140525</v>
+        <v>2.415313280266389</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.673470024573305</v>
+        <v>1.462245396534456</v>
       </c>
       <c r="C21">
-        <v>1.645288297854052</v>
+        <v>0.1600482529641454</v>
       </c>
       <c r="D21">
-        <v>0.07226682496410319</v>
+        <v>0.105619964325669</v>
       </c>
       <c r="E21">
-        <v>2.232131371173438</v>
+        <v>0.05586504124892677</v>
       </c>
       <c r="F21">
-        <v>0.7151516839723513</v>
+        <v>0.9780612367215085</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.03394106454436541</v>
+        <v>0.007865582538152505</v>
       </c>
       <c r="I21">
-        <v>0.02003765971659988</v>
+        <v>0.01047150995675494</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5642697826153764</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07094278137748056</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.350815866630768</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2198727484896352</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3124095373832319</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.879691950255136</v>
+        <v>2.481505773393621</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.087802046524757</v>
+        <v>1.569766605455811</v>
       </c>
       <c r="C22">
-        <v>1.75110429291118</v>
+        <v>0.1675197699300526</v>
       </c>
       <c r="D22">
-        <v>0.07632423049080472</v>
+        <v>0.1122052632599519</v>
       </c>
       <c r="E22">
-        <v>2.399042766224454</v>
+        <v>0.05795368176918991</v>
       </c>
       <c r="F22">
-        <v>0.7641198733797552</v>
+        <v>1.000153872453872</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.03916662059644382</v>
+        <v>0.006264532597204719</v>
       </c>
       <c r="I22">
-        <v>0.02373310118088412</v>
+        <v>0.008460599823172821</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5675928031253292</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07257450892950246</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.446985303933047</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2329054482323158</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3346068576326644</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.997339558723922</v>
+        <v>2.5196622576224</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.866700694770543</v>
+        <v>1.513498061261714</v>
       </c>
       <c r="C23">
-        <v>1.687950480952622</v>
+        <v>0.1627544410261237</v>
       </c>
       <c r="D23">
-        <v>0.07382043616949829</v>
+        <v>0.1085246298757454</v>
       </c>
       <c r="E23">
-        <v>2.309899965022154</v>
+        <v>0.0569087004639961</v>
       </c>
       <c r="F23">
-        <v>0.7409961635137279</v>
+        <v>0.9908022902486664</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.03634905217580897</v>
+        <v>0.007083194232344658</v>
       </c>
       <c r="I23">
-        <v>0.02148344527393053</v>
+        <v>0.009152784824407512</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5676127708805296</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07180231198643661</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.394512178404909</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2254401750595179</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3226749611374942</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.944593446737883</v>
+        <v>2.506367522483458</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.031235608746215</v>
+        <v>1.298623023354821</v>
       </c>
       <c r="C24">
-        <v>1.461156653618673</v>
+        <v>0.1461210789244518</v>
       </c>
       <c r="D24">
-        <v>0.06490913351873928</v>
+        <v>0.09492019036873245</v>
       </c>
       <c r="E24">
-        <v>1.974791371224228</v>
+        <v>0.05283278805404024</v>
       </c>
       <c r="F24">
-        <v>0.6510398744255781</v>
+        <v>0.9527036180111779</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02646713233113207</v>
+        <v>0.01074536427701283</v>
       </c>
       <c r="I24">
-        <v>0.01423350754240449</v>
+        <v>0.01292137727474696</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5654038124267515</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06867872783879747</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.198007025218914</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1981373094957632</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2777050841619442</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.736204745891285</v>
+        <v>2.448273497819059</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.133146981528341</v>
+        <v>1.066839360266755</v>
       </c>
       <c r="C25">
-        <v>1.219123749376706</v>
+        <v>0.1284170435586205</v>
       </c>
       <c r="D25">
-        <v>0.05531613510211741</v>
+        <v>0.08037086706159613</v>
       </c>
       <c r="E25">
-        <v>1.617694854800973</v>
+        <v>0.04841916689203352</v>
       </c>
       <c r="F25">
-        <v>0.5591086164494499</v>
+        <v>0.9144422962664081</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01727780945380286</v>
+        <v>0.015780398626629</v>
       </c>
       <c r="I25">
-        <v>0.00809390645974073</v>
+        <v>0.01818252280533805</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5644472817730275</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06521102808358137</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9865916443538083</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.168945595489582</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2293358842094371</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.527106045572907</v>
+        <v>2.393874033390603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8986013782645443</v>
+        <v>0.8855029593118218</v>
       </c>
       <c r="C2">
-        <v>0.1137161507113973</v>
+        <v>0.1106625046012368</v>
       </c>
       <c r="D2">
-        <v>0.06935580605703251</v>
+        <v>0.07363115878634829</v>
       </c>
       <c r="E2">
-        <v>0.04531677238190035</v>
+        <v>0.04438861395644089</v>
       </c>
       <c r="F2">
-        <v>0.8946694762982901</v>
+        <v>0.8201518530382259</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02029398899209922</v>
+        <v>0.01691910936095348</v>
       </c>
       <c r="I2">
-        <v>0.0220998344844916</v>
+        <v>0.01666373688985523</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.5694339774397754</v>
+        <v>0.4999330197269458</v>
       </c>
       <c r="L2">
-        <v>0.0628080041364214</v>
+        <v>0.2035046044159969</v>
       </c>
       <c r="M2">
-        <v>0.8284440012547805</v>
+        <v>0.1721365594074626</v>
       </c>
       <c r="N2">
-        <v>0.1464278166071153</v>
+        <v>0.0596270767500382</v>
       </c>
       <c r="O2">
-        <v>0.1935880517744373</v>
+        <v>0.8527565054835691</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1631851768815622</v>
       </c>
       <c r="Q2">
-        <v>2.378300141820972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1953758907247156</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2.1465301942401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7828047941949876</v>
+        <v>0.772830093043865</v>
       </c>
       <c r="C3">
-        <v>0.1048499391208608</v>
+        <v>0.09873895131138255</v>
       </c>
       <c r="D3">
-        <v>0.06216194047104295</v>
+        <v>0.06593805930113206</v>
       </c>
       <c r="E3">
-        <v>0.04309669138657313</v>
+        <v>0.04239117117977464</v>
       </c>
       <c r="F3">
-        <v>0.8789913092626307</v>
+        <v>0.8102725660688748</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02387119435170126</v>
+        <v>0.01999943168307688</v>
       </c>
       <c r="I3">
-        <v>0.02576277222621037</v>
+        <v>0.019517837987439</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.570867806379205</v>
+        <v>0.5046674256970682</v>
       </c>
       <c r="L3">
-        <v>0.06097222884366627</v>
+        <v>0.2083831453323377</v>
       </c>
       <c r="M3">
-        <v>0.7228340281241685</v>
+        <v>0.1725869714092543</v>
       </c>
       <c r="N3">
-        <v>0.1319477709677344</v>
+        <v>0.05802885506802946</v>
       </c>
       <c r="O3">
-        <v>0.16948905970618</v>
+        <v>0.7430172272777611</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1473424922375841</v>
       </c>
       <c r="Q3">
-        <v>2.361145641219423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1709056677125851</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.145010294748701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7115142609379745</v>
+        <v>0.7033687058440989</v>
       </c>
       <c r="C4">
-        <v>0.09945033952267579</v>
+        <v>0.09153729943962219</v>
       </c>
       <c r="D4">
-        <v>0.05777129444640394</v>
+        <v>0.06124890581035203</v>
       </c>
       <c r="E4">
-        <v>0.04171966791343173</v>
+        <v>0.04114945270751313</v>
       </c>
       <c r="F4">
-        <v>0.8698484127501089</v>
+        <v>0.804591591660234</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02630118267850023</v>
+        <v>0.02209632278515716</v>
       </c>
       <c r="I4">
-        <v>0.02827671140513921</v>
+        <v>0.02149528501997944</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.5719783222060535</v>
+        <v>0.5077375950831104</v>
       </c>
       <c r="L4">
-        <v>0.05980564795922572</v>
+        <v>0.2114371344320034</v>
       </c>
       <c r="M4">
-        <v>0.6580041024218133</v>
+        <v>0.1734399333279661</v>
       </c>
       <c r="N4">
-        <v>0.1231132686387184</v>
+        <v>0.05701076413834549</v>
       </c>
       <c r="O4">
-        <v>0.1546953029090581</v>
+        <v>0.6756793358888444</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.137702860913862</v>
       </c>
       <c r="Q4">
-        <v>2.352031049204712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1558813102700753</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.14521547143849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6821420944286842</v>
+        <v>0.6747287260602661</v>
       </c>
       <c r="C5">
-        <v>0.09744057829134078</v>
+        <v>0.08883488904445613</v>
       </c>
       <c r="D5">
-        <v>0.05602849500735374</v>
+        <v>0.05938602584045327</v>
       </c>
       <c r="E5">
-        <v>0.04113679173140383</v>
+        <v>0.04062232307028957</v>
       </c>
       <c r="F5">
-        <v>0.8655872288141992</v>
+        <v>0.8017658364950648</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02735514097296321</v>
+        <v>0.02300698236558357</v>
       </c>
       <c r="I5">
-        <v>0.02946335489528229</v>
+        <v>0.02246453248210845</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.572002378024159</v>
+        <v>0.5085979238224567</v>
       </c>
       <c r="L5">
-        <v>0.05929318030311848</v>
+        <v>0.2124864474886969</v>
       </c>
       <c r="M5">
-        <v>0.6318597454902601</v>
+        <v>0.1738195253728989</v>
       </c>
       <c r="N5">
-        <v>0.119649199998733</v>
+        <v>0.05656339271404054</v>
       </c>
       <c r="O5">
-        <v>0.148687138100378</v>
+        <v>0.6485145912802039</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1339183178646621</v>
       </c>
       <c r="Q5">
-        <v>2.346753988816985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1497780329788974</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.143831237947253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6769313764551725</v>
+        <v>0.6696486283808269</v>
       </c>
       <c r="C6">
-        <v>0.09733037585478854</v>
+        <v>0.08863936490485003</v>
       </c>
       <c r="D6">
-        <v>0.05578873463193901</v>
+        <v>0.05912587225905241</v>
       </c>
       <c r="E6">
-        <v>0.04101766614965641</v>
+        <v>0.04051358592871424</v>
       </c>
       <c r="F6">
-        <v>0.8640879361643243</v>
+        <v>0.8005637624575428</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02754169143698182</v>
+        <v>0.0231684663256766</v>
       </c>
       <c r="I6">
-        <v>0.02979048637611026</v>
+        <v>0.02276993033957631</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.5714173604370529</v>
+        <v>0.5082175746963387</v>
       </c>
       <c r="L6">
-        <v>0.05917463741687534</v>
+        <v>0.212406205906305</v>
       </c>
       <c r="M6">
-        <v>0.6278559222542839</v>
+        <v>0.1737533544754122</v>
       </c>
       <c r="N6">
-        <v>0.1192255730377454</v>
+        <v>0.05646051791752793</v>
       </c>
       <c r="O6">
-        <v>0.1477146614566465</v>
+        <v>0.6443346847755294</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1334416057081143</v>
       </c>
       <c r="Q6">
-        <v>2.343565374940894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1487890021261045</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.141486901208054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7102126087165743</v>
+        <v>0.7021059450799498</v>
       </c>
       <c r="C7">
-        <v>0.1000337605267632</v>
+        <v>0.09219309502530137</v>
       </c>
       <c r="D7">
-        <v>0.05788247553596904</v>
+        <v>0.06135697187087885</v>
       </c>
       <c r="E7">
-        <v>0.0416515480771249</v>
+        <v>0.0410853078741944</v>
       </c>
       <c r="F7">
-        <v>0.8676127555276096</v>
+        <v>0.8025441664557462</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02633642971904682</v>
+        <v>0.02212737532371067</v>
       </c>
       <c r="I7">
-        <v>0.02861955084639245</v>
+        <v>0.02187369243227977</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.5703643880255278</v>
+        <v>0.5063227214354029</v>
       </c>
       <c r="L7">
-        <v>0.05970960267460423</v>
+        <v>0.2107747868308962</v>
       </c>
       <c r="M7">
-        <v>0.6585759498744466</v>
+        <v>0.1730535004690452</v>
       </c>
       <c r="N7">
-        <v>0.1234790431075012</v>
+        <v>0.05692922985312121</v>
       </c>
       <c r="O7">
-        <v>0.1546830904585761</v>
+        <v>0.6762184283290509</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1380638227822359</v>
       </c>
       <c r="Q7">
-        <v>2.345600153730174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1558658272782232</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.139403529391885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8574993487309541</v>
+        <v>0.8455383113678465</v>
       </c>
       <c r="C8">
-        <v>0.1114675317500939</v>
+        <v>0.1074669260517993</v>
       </c>
       <c r="D8">
-        <v>0.06704868235425465</v>
+        <v>0.07114863366070523</v>
       </c>
       <c r="E8">
-        <v>0.04447488365810415</v>
+        <v>0.04362838094642996</v>
       </c>
       <c r="F8">
-        <v>0.8862989910999204</v>
+        <v>0.8140409044072214</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0215017515284881</v>
+        <v>0.01795875516364831</v>
       </c>
       <c r="I8">
-        <v>0.02369991733665078</v>
+        <v>0.01804182723043279</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.5677658100499841</v>
+        <v>0.4996863337458848</v>
       </c>
       <c r="L8">
-        <v>0.06206751757359097</v>
+        <v>0.2043674096878796</v>
       </c>
       <c r="M8">
-        <v>0.7932565833888248</v>
+        <v>0.1715979079142613</v>
       </c>
       <c r="N8">
-        <v>0.1419720570037768</v>
+        <v>0.05898791887014987</v>
       </c>
       <c r="O8">
-        <v>0.1853682988634411</v>
+        <v>0.8161167116319348</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1582544130260715</v>
       </c>
       <c r="Q8">
-        <v>2.36374103938455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1870261699221274</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.13822733847266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.146612454037268</v>
+        <v>1.126296393491117</v>
       </c>
       <c r="C9">
-        <v>0.1332153624975376</v>
+        <v>0.1371923669581747</v>
       </c>
       <c r="D9">
-        <v>0.0850120852994678</v>
+        <v>0.09040340925822932</v>
       </c>
       <c r="E9">
-        <v>0.05001538110765225</v>
+        <v>0.04860086531219387</v>
       </c>
       <c r="F9">
-        <v>0.9308109433123519</v>
+        <v>0.8433286470354417</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01392296244550376</v>
+        <v>0.01145844378988565</v>
       </c>
       <c r="I9">
-        <v>0.01573874623646088</v>
+        <v>0.01182163204830822</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.5674032462055401</v>
+        <v>0.4904991849452607</v>
       </c>
       <c r="L9">
-        <v>0.06654479970169191</v>
+        <v>0.1933341775948101</v>
       </c>
       <c r="M9">
-        <v>1.056066076547296</v>
+        <v>0.1741371732939143</v>
       </c>
       <c r="N9">
-        <v>0.1779949724324936</v>
+        <v>0.06287171654256074</v>
       </c>
       <c r="O9">
-        <v>0.2454931733415684</v>
+        <v>1.089381582296284</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1978544801860025</v>
       </c>
       <c r="Q9">
-        <v>2.422310055298055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2480592886558632</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.155551273738695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.3574709826662</v>
+        <v>1.330995292677102</v>
       </c>
       <c r="C10">
-        <v>0.1511025484034292</v>
+        <v>0.1613146101072118</v>
       </c>
       <c r="D10">
-        <v>0.09714984709815155</v>
+        <v>0.1034149714794523</v>
       </c>
       <c r="E10">
-        <v>0.05249294667529547</v>
+        <v>0.05073937060445211</v>
       </c>
       <c r="F10">
-        <v>0.9533905350530105</v>
+        <v>0.8561095053731833</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01004600115015686</v>
+        <v>0.008193475099075087</v>
       </c>
       <c r="I10">
-        <v>0.01157715563318007</v>
+        <v>0.008721562476823763</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.5612232921426958</v>
+        <v>0.4791109714622053</v>
       </c>
       <c r="L10">
-        <v>0.06866761979642089</v>
+        <v>0.1835864735136568</v>
       </c>
       <c r="M10">
-        <v>1.253109352881182</v>
+        <v>0.1766288678743742</v>
       </c>
       <c r="N10">
-        <v>0.1984830670646431</v>
+        <v>0.06486445338486213</v>
       </c>
       <c r="O10">
-        <v>0.2865561152452756</v>
+        <v>1.293745748074826</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2205944430625095</v>
       </c>
       <c r="Q10">
-        <v>2.441202129717738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2897044769204413</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2.148373266474238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.447340848357697</v>
+        <v>1.422129607810859</v>
       </c>
       <c r="C11">
-        <v>0.1719174649952464</v>
+        <v>0.1840972063512964</v>
       </c>
       <c r="D11">
-        <v>0.09174472403072542</v>
+        <v>0.09745552062160812</v>
       </c>
       <c r="E11">
-        <v>0.04234208745891621</v>
+        <v>0.04113967236395144</v>
       </c>
       <c r="F11">
-        <v>0.8621703188220664</v>
+        <v>0.7757462180821122</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02847406191167323</v>
+        <v>0.02668298905137334</v>
       </c>
       <c r="I11">
-        <v>0.0110871476920229</v>
+        <v>0.008590806210493795</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.5039526791694939</v>
+        <v>0.4321882567848654</v>
       </c>
       <c r="L11">
-        <v>0.06616373538944043</v>
+        <v>0.1651484630748712</v>
       </c>
       <c r="M11">
-        <v>1.370370199930733</v>
+        <v>0.1609671111790192</v>
       </c>
       <c r="N11">
-        <v>0.1552787487592084</v>
+        <v>0.06461506224403202</v>
       </c>
       <c r="O11">
-        <v>0.2771421439021822</v>
+        <v>1.410384171902081</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.174001171728527</v>
       </c>
       <c r="Q11">
-        <v>2.199974680641816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2800395137184637</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.940711391885372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.480095167890681</v>
+        <v>1.457374970936314</v>
       </c>
       <c r="C12">
-        <v>0.1858743718226066</v>
+        <v>0.1977763976407942</v>
       </c>
       <c r="D12">
-        <v>0.08453056951530868</v>
+        <v>0.08961029752469329</v>
       </c>
       <c r="E12">
-        <v>0.03592421569525861</v>
+        <v>0.03518909374674983</v>
       </c>
       <c r="F12">
-        <v>0.7871958155880421</v>
+        <v>0.7110791210668808</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06738742438952272</v>
+        <v>0.06557512355909978</v>
       </c>
       <c r="I12">
-        <v>0.01090111864080789</v>
+        <v>0.008442567065284123</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.4625842580066681</v>
+        <v>0.399607999267964</v>
       </c>
       <c r="L12">
-        <v>0.07030426937367729</v>
+        <v>0.1536933959903788</v>
       </c>
       <c r="M12">
-        <v>1.427331060457789</v>
+        <v>0.1484683413703216</v>
       </c>
       <c r="N12">
-        <v>0.1190612576981209</v>
+        <v>0.07036838391650591</v>
       </c>
       <c r="O12">
-        <v>0.2605224434146791</v>
+        <v>1.46507635515357</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1347099545139656</v>
       </c>
       <c r="Q12">
-        <v>2.011568380617916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2630997574919753</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.783138855822941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.469017657725374</v>
+        <v>1.449929156277591</v>
       </c>
       <c r="C13">
-        <v>0.196172955392754</v>
+        <v>0.2061810791023646</v>
       </c>
       <c r="D13">
-        <v>0.07576368188694715</v>
+        <v>0.08012546965467493</v>
       </c>
       <c r="E13">
-        <v>0.03189256351494585</v>
+        <v>0.03157406460349876</v>
       </c>
       <c r="F13">
-        <v>0.7168756937784693</v>
+        <v>0.6513982422511049</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1237506911676007</v>
+        <v>0.1218437476034353</v>
       </c>
       <c r="I13">
-        <v>0.01136405197026846</v>
+        <v>0.008769564670587648</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.4283834556033987</v>
+        <v>0.3737292075947707</v>
       </c>
       <c r="L13">
-        <v>0.0794537621502549</v>
+        <v>0.1454674069299884</v>
       </c>
       <c r="M13">
-        <v>1.442076267263047</v>
+        <v>0.1371703494876684</v>
       </c>
       <c r="N13">
-        <v>0.08692785003182024</v>
+        <v>0.08068709572084032</v>
       </c>
       <c r="O13">
-        <v>0.2376263642889995</v>
+        <v>1.476134639769384</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09964604304441593</v>
       </c>
       <c r="Q13">
-        <v>1.842407795499511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2398117165583926</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.645127020531405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.441130298226511</v>
+        <v>1.425093508800927</v>
       </c>
       <c r="C14">
-        <v>0.2020407336782029</v>
+        <v>0.2099574031501703</v>
       </c>
       <c r="D14">
-        <v>0.06903943763086318</v>
+        <v>0.07287084002022226</v>
       </c>
       <c r="E14">
-        <v>0.03049256272744422</v>
+        <v>0.03042442414643332</v>
       </c>
       <c r="F14">
-        <v>0.6700625576120487</v>
+        <v>0.6120067945502186</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1736827539781416</v>
+        <v>0.1716763127824805</v>
       </c>
       <c r="I14">
-        <v>0.01209272500660408</v>
+        <v>0.009335938827444323</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.4078898514977496</v>
+        <v>0.3586962516793193</v>
       </c>
       <c r="L14">
-        <v>0.0888915619862658</v>
+        <v>0.1409655491727015</v>
       </c>
       <c r="M14">
-        <v>1.433541807816397</v>
+        <v>0.1300557179230655</v>
       </c>
       <c r="N14">
-        <v>0.06724828375055125</v>
+        <v>0.09067114012475486</v>
       </c>
       <c r="O14">
-        <v>0.2189582223455311</v>
+        <v>1.464363180791054</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07806857594775352</v>
       </c>
       <c r="Q14">
-        <v>1.733265954253739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2208398729356702</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.557428820942917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.424614389941979</v>
+        <v>1.409546469320304</v>
       </c>
       <c r="C15">
-        <v>0.2028627179521578</v>
+        <v>0.2100024963852292</v>
       </c>
       <c r="D15">
-        <v>0.06711398996275619</v>
+        <v>0.07079676301784588</v>
       </c>
       <c r="E15">
-        <v>0.03032036127188498</v>
+        <v>0.03030837146920917</v>
       </c>
       <c r="F15">
-        <v>0.6586614215483166</v>
+        <v>0.6025802337865542</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1864826428092243</v>
+        <v>0.1844281120909699</v>
       </c>
       <c r="I15">
-        <v>0.01256401432275567</v>
+        <v>0.009747314166130394</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.4036418516593727</v>
+        <v>0.3557953284215571</v>
       </c>
       <c r="L15">
-        <v>0.09141222466713472</v>
+        <v>0.1401889315825624</v>
       </c>
       <c r="M15">
-        <v>1.42266159162341</v>
+        <v>0.1284577664445958</v>
       </c>
       <c r="N15">
-        <v>0.06276652978364439</v>
+        <v>0.09326013709929271</v>
       </c>
       <c r="O15">
-        <v>0.2131270776706735</v>
+        <v>1.452417001406758</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07313460474515665</v>
       </c>
       <c r="Q15">
-        <v>1.707943468825803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2149180135713671</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.537721113108049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.335390310536638</v>
+        <v>1.322210935291906</v>
       </c>
       <c r="C16">
-        <v>0.1930386475988968</v>
+        <v>0.1977858423617249</v>
       </c>
       <c r="D16">
-        <v>0.06396738185860329</v>
+        <v>0.06745301876397747</v>
       </c>
       <c r="E16">
-        <v>0.03011784360710279</v>
+        <v>0.03011101456168697</v>
       </c>
       <c r="F16">
-        <v>0.662266914906219</v>
+        <v>0.6077659884326962</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1753826366824853</v>
+        <v>0.1730740253317862</v>
       </c>
       <c r="I16">
-        <v>0.01436233363924799</v>
+        <v>0.01115988741308716</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.412148612755928</v>
+        <v>0.3644636437060083</v>
       </c>
       <c r="L16">
-        <v>0.08823706793211983</v>
+        <v>0.1438229433881588</v>
       </c>
       <c r="M16">
-        <v>1.33433974578864</v>
+        <v>0.1303353617369254</v>
       </c>
       <c r="N16">
-        <v>0.06151519026305863</v>
+        <v>0.0897003051626406</v>
       </c>
       <c r="O16">
-        <v>0.2007737484842025</v>
+        <v>1.36172736484113</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07173540797672828</v>
       </c>
       <c r="Q16">
-        <v>1.730186874358623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2024057392986514</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.563548170519567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.281888014701508</v>
+        <v>1.268529123180741</v>
       </c>
       <c r="C17">
-        <v>0.1823997094161598</v>
+        <v>0.1865034327205279</v>
       </c>
       <c r="D17">
-        <v>0.0650835034561581</v>
+        <v>0.06869044706588312</v>
       </c>
       <c r="E17">
-        <v>0.03046301065899809</v>
+        <v>0.03034616831235815</v>
       </c>
       <c r="F17">
-        <v>0.6895171472901183</v>
+        <v>0.6324757393496085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.138573124320402</v>
+        <v>0.1361186782256709</v>
       </c>
       <c r="I17">
-        <v>0.01540306169794814</v>
+        <v>0.01198945589706391</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.4292867067217898</v>
+        <v>0.3790076466980761</v>
       </c>
       <c r="L17">
-        <v>0.08028063403606467</v>
+        <v>0.1493317311066811</v>
       </c>
       <c r="M17">
-        <v>1.271400754707059</v>
+        <v>0.1352591694938798</v>
       </c>
       <c r="N17">
-        <v>0.0704251766478734</v>
+        <v>0.0812340751192302</v>
       </c>
       <c r="O17">
-        <v>0.2011028459878546</v>
+        <v>1.298705102205673</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.08146434539013825</v>
       </c>
       <c r="Q17">
-        <v>1.804377275207386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2027705768810399</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.629659286999697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.253667004801798</v>
+        <v>1.238385839778545</v>
       </c>
       <c r="C18">
-        <v>0.1696389888582956</v>
+        <v>0.1742611003759862</v>
       </c>
       <c r="D18">
-        <v>0.06999956166940535</v>
+        <v>0.07402975356259844</v>
       </c>
       <c r="E18">
-        <v>0.03260919417223906</v>
+        <v>0.03223609012294526</v>
       </c>
       <c r="F18">
-        <v>0.7435928921784978</v>
+        <v>0.6797202813684606</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08599539721348748</v>
+        <v>0.08350545400580955</v>
       </c>
       <c r="I18">
-        <v>0.01547040633252017</v>
+        <v>0.01194453149478569</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.4584386831805141</v>
+        <v>0.402403828965479</v>
       </c>
       <c r="L18">
-        <v>0.07036563299178233</v>
+        <v>0.158046634216694</v>
       </c>
       <c r="M18">
-        <v>1.222536470050613</v>
+        <v>0.1438624644720132</v>
       </c>
       <c r="N18">
-        <v>0.09159521989852237</v>
+        <v>0.07048856349018706</v>
       </c>
       <c r="O18">
-        <v>0.2124876404689218</v>
+        <v>1.251642898593815</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1045216474746482</v>
       </c>
       <c r="Q18">
-        <v>1.941010195800303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2143728009900663</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.745804783224443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.245935358532932</v>
+        <v>1.227594121235626</v>
       </c>
       <c r="C19">
-        <v>0.1583676798008753</v>
+        <v>0.164238712163538</v>
       </c>
       <c r="D19">
-        <v>0.07805527393612266</v>
+        <v>0.08274821911896879</v>
       </c>
       <c r="E19">
-        <v>0.03791135189735595</v>
+        <v>0.03712741644535278</v>
       </c>
       <c r="F19">
-        <v>0.8155016529826113</v>
+        <v>0.7414688975749755</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04010628776404701</v>
+        <v>0.03770283721544843</v>
       </c>
       <c r="I19">
-        <v>0.01532343310809292</v>
+        <v>0.01189216262680759</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.4957447360950979</v>
+        <v>0.43147816686459</v>
       </c>
       <c r="L19">
-        <v>0.06429797368291368</v>
+        <v>0.1687925623393536</v>
       </c>
       <c r="M19">
-        <v>1.190836779989723</v>
+        <v>0.1548493211233719</v>
       </c>
       <c r="N19">
-        <v>0.1257947237248018</v>
+        <v>0.06315435883263909</v>
       </c>
       <c r="O19">
-        <v>0.2324508460903125</v>
+        <v>1.222978085317379</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1416099138223217</v>
       </c>
       <c r="Q19">
-        <v>2.117745336973002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2346939227699743</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.892499215065754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.299184617073877</v>
+        <v>1.274493846450582</v>
       </c>
       <c r="C20">
-        <v>0.1484465678715736</v>
+        <v>0.1573393702729504</v>
       </c>
       <c r="D20">
-        <v>0.09432298267105921</v>
+        <v>0.1003497363246453</v>
       </c>
       <c r="E20">
-        <v>0.05160030176606867</v>
+        <v>0.04995124191676226</v>
       </c>
       <c r="F20">
-        <v>0.9401800209145321</v>
+        <v>0.846206314481698</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.01100569320884182</v>
+        <v>0.008996799536980848</v>
       </c>
       <c r="I20">
-        <v>0.01351535001759263</v>
+        <v>0.01054233445958985</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.5576756605076447</v>
+        <v>0.4777330844008816</v>
       </c>
       <c r="L20">
-        <v>0.06782900777399448</v>
+        <v>0.1845459264135698</v>
       </c>
       <c r="M20">
-        <v>1.20439201331132</v>
+        <v>0.1741346194692319</v>
       </c>
       <c r="N20">
-        <v>0.1941035949662933</v>
+        <v>0.06412273146074776</v>
       </c>
       <c r="O20">
-        <v>0.2758450673754353</v>
+        <v>1.24303718847662</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2156065436372074</v>
       </c>
       <c r="Q20">
-        <v>2.415313280266389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2788342452264132</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2.131772925746901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.462245396534456</v>
+        <v>1.431923159866471</v>
       </c>
       <c r="C21">
-        <v>0.1600482529641454</v>
+        <v>0.1739662609284665</v>
       </c>
       <c r="D21">
-        <v>0.105619964325669</v>
+        <v>0.1125019844951538</v>
       </c>
       <c r="E21">
-        <v>0.05586504124892677</v>
+        <v>0.05381988456508857</v>
       </c>
       <c r="F21">
-        <v>0.9780612367215085</v>
+        <v>0.8735371785657904</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.007865582538152505</v>
+        <v>0.006315733849594718</v>
       </c>
       <c r="I21">
-        <v>0.01047150995675494</v>
+        <v>0.008241443518811842</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.5642697826153764</v>
+        <v>0.4778139037791149</v>
       </c>
       <c r="L21">
-        <v>0.07094278137748056</v>
+        <v>0.1803152664173844</v>
       </c>
       <c r="M21">
-        <v>1.350815866630768</v>
+        <v>0.18018926842743</v>
       </c>
       <c r="N21">
-        <v>0.2198727484896352</v>
+        <v>0.06669723436186725</v>
       </c>
       <c r="O21">
-        <v>0.3124095373832319</v>
+        <v>1.395781116831159</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2439730469003791</v>
       </c>
       <c r="Q21">
-        <v>2.481505773393621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3159279517114797</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>2.168963275512795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.569766605455811</v>
+        <v>1.535838776779883</v>
       </c>
       <c r="C22">
-        <v>0.1675197699300526</v>
+        <v>0.184595356451382</v>
       </c>
       <c r="D22">
-        <v>0.1122052632599519</v>
+        <v>0.119596730794882</v>
       </c>
       <c r="E22">
-        <v>0.05795368176918991</v>
+        <v>0.05568470756278288</v>
       </c>
       <c r="F22">
-        <v>1.000153872453872</v>
+        <v>0.8892575610596651</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006264532597204719</v>
+        <v>0.004970221058054392</v>
       </c>
       <c r="I22">
-        <v>0.008460599823172821</v>
+        <v>0.006596529274072616</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.5675928031253292</v>
+        <v>0.4772443637607964</v>
       </c>
       <c r="L22">
-        <v>0.07257450892950246</v>
+        <v>0.1772590556719607</v>
       </c>
       <c r="M22">
-        <v>1.446985303933047</v>
+        <v>0.1844180156616133</v>
       </c>
       <c r="N22">
-        <v>0.2329054482323158</v>
+        <v>0.06809587237293346</v>
       </c>
       <c r="O22">
-        <v>0.3346068576326644</v>
+        <v>1.495880415563249</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.258456346420985</v>
       </c>
       <c r="Q22">
-        <v>2.5196622576224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3384361524351505</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>2.189611358440033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.513498061261714</v>
+        <v>1.481459370984112</v>
       </c>
       <c r="C23">
-        <v>0.1627544410261237</v>
+        <v>0.1779940635534842</v>
       </c>
       <c r="D23">
-        <v>0.1085246298757454</v>
+        <v>0.1156443392856232</v>
       </c>
       <c r="E23">
-        <v>0.0569087004639961</v>
+        <v>0.05475450050018082</v>
       </c>
       <c r="F23">
-        <v>0.9908022902486664</v>
+        <v>0.8830656527001537</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.007083194232344658</v>
+        <v>0.005657056866273102</v>
       </c>
       <c r="I23">
-        <v>0.009152784824407512</v>
+        <v>0.007039491206376702</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.5676127708805296</v>
+        <v>0.4790594835116799</v>
       </c>
       <c r="L23">
-        <v>0.07180231198643661</v>
+        <v>0.1793961486304205</v>
       </c>
       <c r="M23">
-        <v>1.394512178404909</v>
+        <v>0.1827478462940064</v>
       </c>
       <c r="N23">
-        <v>0.2254401750595179</v>
+        <v>0.06742562563594134</v>
       </c>
       <c r="O23">
-        <v>0.3226749611374942</v>
+        <v>1.441326476973302</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2502087643884749</v>
       </c>
       <c r="Q23">
-        <v>2.506367522483458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3263412696790766</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2.184835554587835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.298623023354821</v>
+        <v>1.273592515268575</v>
       </c>
       <c r="C24">
-        <v>0.1461210789244518</v>
+        <v>0.1548086005706324</v>
       </c>
       <c r="D24">
-        <v>0.09492019036873245</v>
+        <v>0.101022557577366</v>
       </c>
       <c r="E24">
-        <v>0.05283278805404024</v>
+        <v>0.05111668678542358</v>
       </c>
       <c r="F24">
-        <v>0.9527036180111779</v>
+        <v>0.8571270597853982</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.01074536427701283</v>
+        <v>0.008752497266648063</v>
       </c>
       <c r="I24">
-        <v>0.01292137727474696</v>
+        <v>0.009859330428315438</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.5654038124267515</v>
+        <v>0.4839785407057882</v>
       </c>
       <c r="L24">
-        <v>0.06867872783879747</v>
+        <v>0.1868657221197978</v>
       </c>
       <c r="M24">
-        <v>1.198007025218914</v>
+        <v>0.1764784900609904</v>
       </c>
       <c r="N24">
-        <v>0.1981373094957632</v>
+        <v>0.06472836962464346</v>
       </c>
       <c r="O24">
-        <v>0.2777050841619442</v>
+        <v>1.236922537408418</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2200097483407006</v>
       </c>
       <c r="Q24">
-        <v>2.448273497819059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2807359342712488</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2.159788923158743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.066839360266755</v>
+        <v>1.048929832050618</v>
       </c>
       <c r="C25">
-        <v>0.1284170435586205</v>
+        <v>0.1303567922775954</v>
       </c>
       <c r="D25">
-        <v>0.08037086706159613</v>
+        <v>0.08540453294525463</v>
       </c>
       <c r="E25">
-        <v>0.04841916689203352</v>
+        <v>0.04716654805631215</v>
       </c>
       <c r="F25">
-        <v>0.9144422962664081</v>
+        <v>0.8315179250447429</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.015780398626629</v>
+        <v>0.0130470108694753</v>
       </c>
       <c r="I25">
-        <v>0.01818252280533805</v>
+        <v>0.01390766605120763</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.5644472817730275</v>
+        <v>0.4903887904272892</v>
       </c>
       <c r="L25">
-        <v>0.06521102808358137</v>
+        <v>0.1953044021561787</v>
       </c>
       <c r="M25">
-        <v>0.9865916443538083</v>
+        <v>0.1720862166404622</v>
       </c>
       <c r="N25">
-        <v>0.168945595489582</v>
+        <v>0.06172647618029714</v>
       </c>
       <c r="O25">
-        <v>0.2293358842094371</v>
+        <v>1.017032520671847</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1878152586936181</v>
       </c>
       <c r="Q25">
-        <v>2.393874033390603</v>
+        <v>0.2316565329187625</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>2.139710432149656</v>
       </c>
     </row>
   </sheetData>
